--- a/premise/data/additional_inventories/lci-batteries-vanadium.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-vanadium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F99D304-A7EB-B646-9BA6-36A7BFAB1643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D276EDF-19FD-4070-A414-FD6768CCF514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34080" windowHeight="21880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1422,11 +1422,6 @@
     <t>activated bentonite</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: Weber et al. (2018). Life cycle assessment of a vanadium redox flow battery. Environmental science &amp; technology, 52(18), 10864-10873. https://doi.org/10.1021/acs.est.8b02073. Comments on modelling. All the flows related to energy consumption are based on U.S. Department of Energy survay from 2007 on Mining Industry (http://www1.eere.energy.gov/manufacturing/industries_technologies/mining/pdfs/mining_bandwidth.pdf). The emissions are based on limestone quarry operation and production datasets. The land use and occupation is based on rough measurements from map.
-Ilmenite and magnetite mining from hard-rock ore. Based on Tellnes mine (Norway) and Lac Allard mine (Canada).
-Geography:  Data on energy consumption are based on survey of mining operation sites in the U.S. This data are considered to be representative for the global activity. </t>
-  </si>
-  <si>
     <t>Calculated based on literature values and assumtion. So far there is no mention in the literature thet either allard mine or tellnes mine are being recultivated. It is assumed that the used land is recultivated after 30 years.</t>
   </si>
   <si>
@@ -1549,6 +1544,11 @@
   </si>
   <si>
     <t>negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARNING: Original LCI exchanges have been normalized to 1. Uncertainty data must be checked. Source: Weber et al. (2018). Life cycle assessment of a vanadium redox flow battery. Environmental science &amp; technology, 52(18), 10864-10873. https://doi.org/10.1021/acs.est.8b02073. Comments on modelling. All the flows related to energy consumption are based on U.S. Department of Energy survay from 2007 on Mining Industry (http://www1.eere.energy.gov/manufacturing/industries_technologies/mining/pdfs/mining_bandwidth.pdf). The emissions are based on limestone quarry operation and production datasets. The land use and occupation is based on rough measurements from map.
+Ilmenite and magnetite mining from hard-rock ore. Based on Tellnes mine (Norway) and Lac Allard mine (Canada).
+Geography:  Data on energy consumption are based on survey of mining operation sites in the U.S. This data are considered to be representative for the global activity. </t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1617,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1625,6 +1625,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1910,34 +1911,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36E651A-1BBF-4B98-A20A-7DDAE3546228}">
   <dimension ref="A1:S518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="N510" sqref="N510"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="B437" sqref="B437"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" t="s">
         <v>455</v>
       </c>
-      <c r="B2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1945,7 +1947,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1953,7 +1955,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1969,7 +1971,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1977,7 +1979,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1985,7 +1987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>213</v>
       </c>
@@ -1993,12 +1995,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2021,7 +2023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2038,7 +2040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -2055,7 +2057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -2072,7 +2074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>231</v>
       </c>
@@ -2089,7 +2091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2106,7 +2108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>220</v>
       </c>
@@ -2126,7 +2128,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>190</v>
       </c>
@@ -2146,7 +2148,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -2166,7 +2168,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>188</v>
       </c>
@@ -2186,7 +2188,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2206,7 +2208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>192</v>
       </c>
@@ -2226,7 +2228,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>190</v>
       </c>
@@ -2246,7 +2248,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -2266,7 +2268,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>233</v>
       </c>
@@ -2286,7 +2288,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>194</v>
       </c>
@@ -2306,7 +2308,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>235</v>
       </c>
@@ -2326,7 +2328,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -2346,7 +2348,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>199</v>
       </c>
@@ -2366,7 +2368,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>236</v>
       </c>
@@ -2386,7 +2388,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>219</v>
       </c>
@@ -2406,7 +2408,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2414,15 +2416,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2430,7 +2432,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2438,7 +2440,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2454,7 +2456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -2462,12 +2464,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -2508,10 +2510,10 @@
         <v>246</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2544,7 +2546,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -2577,7 +2579,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>250</v>
       </c>
@@ -2610,7 +2612,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>252</v>
       </c>
@@ -2643,7 +2645,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -2676,7 +2678,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>255</v>
       </c>
@@ -2706,7 +2708,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>257</v>
       </c>
@@ -2739,7 +2741,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>258</v>
       </c>
@@ -2772,7 +2774,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>260</v>
       </c>
@@ -2805,7 +2807,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -2838,7 +2840,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -2868,7 +2870,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>263</v>
       </c>
@@ -2898,7 +2900,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -2931,7 +2933,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -2964,7 +2966,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>237</v>
       </c>
@@ -2993,9 +2995,9 @@
         <v>1137179252766.3799</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B58">
         <v>-1.9900000000000001E-2</v>
@@ -3013,7 +3015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>188</v>
       </c>
@@ -3033,7 +3035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>267</v>
       </c>
@@ -3069,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>267</v>
       </c>
@@ -3105,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>271</v>
       </c>
@@ -3141,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>274</v>
       </c>
@@ -3177,7 +3179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>275</v>
       </c>
@@ -3213,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>277</v>
       </c>
@@ -3246,7 +3248,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>279</v>
       </c>
@@ -3279,7 +3281,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>167</v>
       </c>
@@ -3312,7 +3314,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>146</v>
       </c>
@@ -3348,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>282</v>
       </c>
@@ -3384,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>148</v>
       </c>
@@ -3417,7 +3419,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -3450,7 +3452,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>192</v>
       </c>
@@ -3470,7 +3472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -3490,7 +3492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>173</v>
       </c>
@@ -3510,7 +3512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>285</v>
       </c>
@@ -3546,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>287</v>
       </c>
@@ -3566,7 +3568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>215</v>
       </c>
@@ -3586,7 +3588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -3594,7 +3596,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -3602,7 +3604,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -3610,7 +3612,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -3618,7 +3620,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -3626,7 +3628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>213</v>
       </c>
@@ -3634,12 +3636,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>9</v>
       </c>
@@ -3680,10 +3682,10 @@
         <v>246</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>151</v>
       </c>
@@ -3712,7 +3714,7 @@
         <v>0.42567593307585527</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>152</v>
       </c>
@@ -3741,7 +3743,7 @@
         <v>0.42567593307585527</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>291</v>
       </c>
@@ -3770,7 +3772,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -3799,7 +3801,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -3828,7 +3830,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>252</v>
       </c>
@@ -3857,7 +3859,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>118</v>
       </c>
@@ -3886,7 +3888,7 @@
         <v>0.60099916805266884</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -3912,7 +3914,7 @@
         <v>0.31811947441173732</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>293</v>
       </c>
@@ -3941,7 +3943,7 @@
         <v>0.31811947441173732</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>121</v>
       </c>
@@ -3970,7 +3972,7 @@
         <v>0.31811947441173732</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>258</v>
       </c>
@@ -3999,7 +4001,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>296</v>
       </c>
@@ -4028,7 +4030,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>298</v>
       </c>
@@ -4057,7 +4059,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -4086,7 +4088,7 @@
         <v>0.31811947441173732</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>125</v>
       </c>
@@ -4112,7 +4114,7 @@
         <v>0.60099916805266884</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>263</v>
       </c>
@@ -4138,7 +4140,7 @@
         <v>0.60099916805266884</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>300</v>
       </c>
@@ -4164,7 +4166,7 @@
         <v>0.31811947441173732</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>301</v>
       </c>
@@ -4190,7 +4192,7 @@
         <v>0.42567593307585527</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>154</v>
       </c>
@@ -4216,7 +4218,7 @@
         <v>0.60099916805266884</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>128</v>
       </c>
@@ -4245,7 +4247,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -4277,7 +4279,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -4309,7 +4311,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>155</v>
       </c>
@@ -4341,7 +4343,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>305</v>
       </c>
@@ -4370,7 +4372,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>132</v>
       </c>
@@ -4399,7 +4401,7 @@
         <v>66239548000</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>142</v>
       </c>
@@ -4428,7 +4430,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>143</v>
       </c>
@@ -4457,7 +4459,7 @@
         <v>0.70710678118654757</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>144</v>
       </c>
@@ -4489,7 +4491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>145</v>
       </c>
@@ -4521,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -4541,7 +4543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>100</v>
       </c>
@@ -4570,7 +4572,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>146</v>
       </c>
@@ -4602,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>309</v>
       </c>
@@ -4631,7 +4633,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>147</v>
       </c>
@@ -4660,7 +4662,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>148</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>149</v>
       </c>
@@ -4718,7 +4720,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>150</v>
       </c>
@@ -4747,7 +4749,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>216</v>
       </c>
@@ -4767,7 +4769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -4775,15 +4777,15 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -4791,7 +4793,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -4799,7 +4801,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -4807,7 +4809,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -4815,7 +4817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>213</v>
       </c>
@@ -4823,12 +4825,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -4848,12 +4850,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>220</v>
       </c>
       <c r="B135">
-        <v>1.9265250000000001E-2</v>
+        <f>0.01926525/0.01926525</f>
+        <v>1</v>
       </c>
       <c r="C135" t="s">
         <v>187</v>
@@ -4868,12 +4871,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>237</v>
       </c>
       <c r="B136">
-        <v>0.36707802470940898</v>
+        <f>0.367078024709409/0.01926525</f>
+        <v>19.053893653568419</v>
       </c>
       <c r="C136" t="s">
         <v>240</v>
@@ -4888,7 +4892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
@@ -4896,7 +4900,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -4904,7 +4908,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="140" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -4929,7 +4933,7 @@
       <c r="R140"/>
       <c r="S140"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -4937,7 +4941,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -4945,7 +4949,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -4953,7 +4957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>213</v>
       </c>
@@ -4961,12 +4965,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -4986,7 +4990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>312</v>
       </c>
@@ -5006,7 +5010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>220</v>
       </c>
@@ -5026,7 +5030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>220</v>
       </c>
@@ -5046,7 +5050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -5054,7 +5058,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -5062,7 +5066,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -5070,7 +5074,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -5078,7 +5082,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -5086,7 +5090,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -5094,7 +5098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>213</v>
       </c>
@@ -5102,7 +5106,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>8</v>
       </c>
@@ -5125,7 +5129,7 @@
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -5148,7 +5152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>317</v>
       </c>
@@ -5165,7 +5169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>116</v>
       </c>
@@ -5182,7 +5186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>255</v>
       </c>
@@ -5199,7 +5203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -5216,7 +5220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>155</v>
       </c>
@@ -5233,7 +5237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>314</v>
       </c>
@@ -5253,7 +5257,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>312</v>
       </c>
@@ -5273,9 +5277,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B167">
         <v>0.04</v>
@@ -5293,7 +5297,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>319</v>
       </c>
@@ -5313,7 +5317,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>321</v>
       </c>
@@ -5333,7 +5337,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>323</v>
       </c>
@@ -5353,7 +5357,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>233</v>
       </c>
@@ -5373,7 +5377,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>287</v>
       </c>
@@ -5393,7 +5397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>235</v>
       </c>
@@ -5413,7 +5417,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>325</v>
       </c>
@@ -5433,7 +5437,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>200</v>
       </c>
@@ -5453,7 +5457,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>0</v>
       </c>
@@ -5461,7 +5465,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -5477,7 +5481,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -5485,7 +5489,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -5493,7 +5497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>213</v>
       </c>
@@ -5501,12 +5505,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>9</v>
       </c>
@@ -5547,10 +5551,10 @@
         <v>246</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>330</v>
       </c>
@@ -5582,7 +5586,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>291</v>
       </c>
@@ -5614,7 +5618,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>19</v>
       </c>
@@ -5646,7 +5650,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>116</v>
       </c>
@@ -5678,7 +5682,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>250</v>
       </c>
@@ -5710,7 +5714,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>337</v>
       </c>
@@ -5742,7 +5746,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>252</v>
       </c>
@@ -5774,7 +5778,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>117</v>
       </c>
@@ -5806,7 +5810,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>293</v>
       </c>
@@ -5838,7 +5842,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>121</v>
       </c>
@@ -5870,7 +5874,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>257</v>
       </c>
@@ -5902,7 +5906,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>258</v>
       </c>
@@ -5934,7 +5938,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>260</v>
       </c>
@@ -5966,7 +5970,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>296</v>
       </c>
@@ -5998,7 +6002,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>296</v>
       </c>
@@ -6030,7 +6034,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>122</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>345</v>
       </c>
@@ -6091,7 +6095,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>298</v>
       </c>
@@ -6123,7 +6127,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>123</v>
       </c>
@@ -6155,7 +6159,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>26</v>
       </c>
@@ -6187,7 +6191,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>263</v>
       </c>
@@ -6216,7 +6220,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>300</v>
       </c>
@@ -6245,7 +6249,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>301</v>
       </c>
@@ -6274,7 +6278,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>126</v>
       </c>
@@ -6306,7 +6310,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>351</v>
       </c>
@@ -6338,7 +6342,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>128</v>
       </c>
@@ -6370,7 +6374,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>129</v>
       </c>
@@ -6399,7 +6403,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -6431,7 +6435,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -6463,7 +6467,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>305</v>
       </c>
@@ -6495,7 +6499,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>327</v>
       </c>
@@ -6527,7 +6531,7 @@
         <v>10100000000</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>102</v>
       </c>
@@ -6559,7 +6563,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>355</v>
       </c>
@@ -6591,7 +6595,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>358</v>
       </c>
@@ -6611,7 +6615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>94</v>
       </c>
@@ -6643,7 +6647,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>112</v>
       </c>
@@ -6678,7 +6682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>96</v>
       </c>
@@ -6710,7 +6714,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>98</v>
       </c>
@@ -6742,7 +6746,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>114</v>
       </c>
@@ -6777,7 +6781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>365</v>
       </c>
@@ -6797,7 +6801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>366</v>
       </c>
@@ -6829,7 +6833,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>110</v>
       </c>
@@ -6864,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>369</v>
       </c>
@@ -6884,7 +6888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>0</v>
       </c>
@@ -6892,7 +6896,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1</v>
       </c>
@@ -6900,7 +6904,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>2</v>
       </c>
@@ -6908,7 +6912,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -6916,7 +6920,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -6924,7 +6928,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -6932,7 +6936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>213</v>
       </c>
@@ -6940,12 +6944,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>9</v>
       </c>
@@ -6986,10 +6990,10 @@
         <v>246</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>330</v>
       </c>
@@ -7021,7 +7025,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>375</v>
       </c>
@@ -7053,7 +7057,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>291</v>
       </c>
@@ -7085,7 +7089,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -7117,7 +7121,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>116</v>
       </c>
@@ -7149,7 +7153,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -7181,7 +7185,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>252</v>
       </c>
@@ -7213,7 +7217,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>118</v>
       </c>
@@ -7245,7 +7249,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>293</v>
       </c>
@@ -7277,7 +7281,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>121</v>
       </c>
@@ -7309,7 +7313,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>258</v>
       </c>
@@ -7341,7 +7345,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>260</v>
       </c>
@@ -7373,7 +7377,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>296</v>
       </c>
@@ -7405,7 +7409,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>122</v>
       </c>
@@ -7437,7 +7441,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>345</v>
       </c>
@@ -7466,7 +7470,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>298</v>
       </c>
@@ -7498,7 +7502,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>26</v>
       </c>
@@ -7530,7 +7534,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>201</v>
       </c>
@@ -7562,7 +7566,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>125</v>
       </c>
@@ -7591,7 +7595,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>263</v>
       </c>
@@ -7617,7 +7621,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>300</v>
       </c>
@@ -7646,7 +7650,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>301</v>
       </c>
@@ -7675,7 +7679,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>154</v>
       </c>
@@ -7704,7 +7708,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>382</v>
       </c>
@@ -7736,7 +7740,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>128</v>
       </c>
@@ -7768,7 +7772,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>384</v>
       </c>
@@ -7800,7 +7804,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>386</v>
       </c>
@@ -7832,7 +7836,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>84</v>
       </c>
@@ -7864,7 +7868,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>371</v>
       </c>
@@ -7893,7 +7897,7 @@
         <v>113558550000</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>388</v>
       </c>
@@ -7913,7 +7917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>390</v>
       </c>
@@ -7933,7 +7937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>102</v>
       </c>
@@ -7965,7 +7969,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>100</v>
       </c>
@@ -7985,7 +7989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>392</v>
       </c>
@@ -8005,7 +8009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>149</v>
       </c>
@@ -8025,7 +8029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>285</v>
       </c>
@@ -8060,7 +8064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>285</v>
       </c>
@@ -8095,7 +8099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>287</v>
       </c>
@@ -8115,7 +8119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>395</v>
       </c>
@@ -8135,7 +8139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>369</v>
       </c>
@@ -8155,7 +8159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>0</v>
       </c>
@@ -8163,7 +8167,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -8171,7 +8175,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -8179,7 +8183,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -8187,7 +8191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>5</v>
       </c>
@@ -8195,7 +8199,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -8203,7 +8207,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -8211,7 +8215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>213</v>
       </c>
@@ -8219,12 +8223,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -8247,7 +8251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>255</v>
       </c>
@@ -8264,7 +8268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>345</v>
       </c>
@@ -8281,7 +8285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>155</v>
       </c>
@@ -8298,7 +8302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>397</v>
       </c>
@@ -8318,7 +8322,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>399</v>
       </c>
@@ -8338,7 +8342,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>401</v>
       </c>
@@ -8358,7 +8362,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>403</v>
       </c>
@@ -8378,7 +8382,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>405</v>
       </c>
@@ -8398,7 +8402,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>407</v>
       </c>
@@ -8418,7 +8422,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>194</v>
       </c>
@@ -8438,7 +8442,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>287</v>
       </c>
@@ -8458,7 +8462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>409</v>
       </c>
@@ -8478,7 +8482,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>410</v>
       </c>
@@ -8498,7 +8502,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>0</v>
       </c>
@@ -8506,15 +8510,15 @@
         <v>215</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1</v>
       </c>
       <c r="B305" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>2</v>
       </c>
@@ -8522,7 +8526,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -8530,7 +8534,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -8538,7 +8542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>213</v>
       </c>
@@ -8546,12 +8550,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>9</v>
       </c>
@@ -8589,10 +8593,10 @@
         <v>1</v>
       </c>
       <c r="M311" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>19</v>
       </c>
@@ -8624,7 +8628,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>116</v>
       </c>
@@ -8656,7 +8660,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>118</v>
       </c>
@@ -8688,7 +8692,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>413</v>
       </c>
@@ -8720,7 +8724,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>258</v>
       </c>
@@ -8752,7 +8756,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>260</v>
       </c>
@@ -8784,7 +8788,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>298</v>
       </c>
@@ -8816,7 +8820,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>26</v>
       </c>
@@ -8848,7 +8852,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>263</v>
       </c>
@@ -8877,7 +8881,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>300</v>
       </c>
@@ -8906,7 +8910,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>301</v>
       </c>
@@ -8935,7 +8939,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>128</v>
       </c>
@@ -8967,7 +8971,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>21</v>
       </c>
@@ -8999,7 +9003,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>21</v>
       </c>
@@ -9031,7 +9035,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>155</v>
       </c>
@@ -9063,7 +9067,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>84</v>
       </c>
@@ -9095,7 +9099,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>215</v>
       </c>
@@ -9121,9 +9125,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B329">
         <v>-0.65</v>
@@ -9156,7 +9160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>388</v>
       </c>
@@ -9176,7 +9180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>418</v>
       </c>
@@ -9196,7 +9200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>327</v>
       </c>
@@ -9216,7 +9220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>371</v>
       </c>
@@ -9236,7 +9240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>419</v>
       </c>
@@ -9268,7 +9272,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>100</v>
       </c>
@@ -9300,7 +9304,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>146</v>
       </c>
@@ -9335,7 +9339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>421</v>
       </c>
@@ -9355,7 +9359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>423</v>
       </c>
@@ -9375,7 +9379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>424</v>
       </c>
@@ -9407,7 +9411,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>285</v>
       </c>
@@ -9442,7 +9446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>0</v>
       </c>
@@ -9450,7 +9454,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1</v>
       </c>
@@ -9458,7 +9462,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>2</v>
       </c>
@@ -9466,7 +9470,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>5</v>
       </c>
@@ -9474,7 +9478,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>6</v>
       </c>
@@ -9482,7 +9486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>213</v>
       </c>
@@ -9490,12 +9494,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>9</v>
       </c>
@@ -9536,10 +9540,10 @@
         <v>246</v>
       </c>
       <c r="N349" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>330</v>
       </c>
@@ -9571,7 +9575,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>291</v>
       </c>
@@ -9600,7 +9604,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>291</v>
       </c>
@@ -9632,7 +9636,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>19</v>
       </c>
@@ -9661,7 +9665,7 @@
         <v>0.2032240143290158</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>116</v>
       </c>
@@ -9690,7 +9694,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>250</v>
       </c>
@@ -9719,7 +9723,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>250</v>
       </c>
@@ -9751,7 +9755,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>337</v>
       </c>
@@ -9783,7 +9787,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>252</v>
       </c>
@@ -9812,7 +9816,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>252</v>
       </c>
@@ -9844,7 +9848,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>117</v>
       </c>
@@ -9876,7 +9880,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>118</v>
       </c>
@@ -9905,7 +9909,7 @@
         <v>0.58420886675914119</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>119</v>
       </c>
@@ -9931,7 +9935,7 @@
         <v>0.28513154858766498</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>293</v>
       </c>
@@ -9960,7 +9964,7 @@
         <v>0.28513154858766498</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>121</v>
       </c>
@@ -9989,7 +9993,7 @@
         <v>0.28513154858766498</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>121</v>
       </c>
@@ -10021,7 +10025,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>257</v>
       </c>
@@ -10053,7 +10057,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>258</v>
       </c>
@@ -10082,7 +10086,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>258</v>
       </c>
@@ -10114,7 +10118,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>260</v>
       </c>
@@ -10146,7 +10150,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>260</v>
       </c>
@@ -10175,7 +10179,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>296</v>
       </c>
@@ -10207,7 +10211,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>296</v>
       </c>
@@ -10236,7 +10240,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>296</v>
       </c>
@@ -10268,7 +10272,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>122</v>
       </c>
@@ -10300,7 +10304,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>345</v>
       </c>
@@ -10329,7 +10333,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>298</v>
       </c>
@@ -10358,7 +10362,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>298</v>
       </c>
@@ -10390,7 +10394,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>123</v>
       </c>
@@ -10422,7 +10426,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>26</v>
       </c>
@@ -10451,7 +10455,7 @@
         <v>0.28513154858766498</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>26</v>
       </c>
@@ -10483,7 +10487,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>125</v>
       </c>
@@ -10509,7 +10513,7 @@
         <v>0.58420886675914119</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>263</v>
       </c>
@@ -10535,7 +10539,7 @@
         <v>0.58420886675914119</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>263</v>
       </c>
@@ -10564,7 +10568,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>300</v>
       </c>
@@ -10593,7 +10597,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>301</v>
       </c>
@@ -10622,7 +10626,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>126</v>
       </c>
@@ -10654,7 +10658,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>351</v>
       </c>
@@ -10686,7 +10690,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>128</v>
       </c>
@@ -10715,7 +10719,7 @@
         <v>0.2032240143290158</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>128</v>
       </c>
@@ -10747,7 +10751,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>129</v>
       </c>
@@ -10776,7 +10780,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>386</v>
       </c>
@@ -10805,7 +10809,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>21</v>
       </c>
@@ -10834,7 +10838,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>21</v>
       </c>
@@ -10866,7 +10870,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>84</v>
       </c>
@@ -10895,7 +10899,7 @@
         <v>0.20024984394500789</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>305</v>
       </c>
@@ -10924,7 +10928,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>305</v>
       </c>
@@ -10956,7 +10960,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>216</v>
       </c>
@@ -10988,7 +10992,7 @@
         <v>473333424000</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>428</v>
       </c>
@@ -11020,7 +11024,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>429</v>
       </c>
@@ -11052,7 +11056,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>102</v>
       </c>
@@ -11084,7 +11088,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>92</v>
       </c>
@@ -11116,7 +11120,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>87</v>
       </c>
@@ -11136,7 +11140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>62</v>
       </c>
@@ -11156,7 +11160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>29</v>
       </c>
@@ -11176,7 +11180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>100</v>
       </c>
@@ -11208,7 +11212,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>104</v>
       </c>
@@ -11240,7 +11244,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>90</v>
       </c>
@@ -11260,7 +11264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>94</v>
       </c>
@@ -11280,7 +11284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>112</v>
       </c>
@@ -11300,7 +11304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>96</v>
       </c>
@@ -11332,7 +11336,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>98</v>
       </c>
@@ -11364,7 +11368,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>114</v>
       </c>
@@ -11399,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>114</v>
       </c>
@@ -11434,7 +11438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>88</v>
       </c>
@@ -11466,7 +11470,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>365</v>
       </c>
@@ -11498,7 +11502,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>110</v>
       </c>
@@ -11533,7 +11537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>110</v>
       </c>
@@ -11568,7 +11572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>215</v>
       </c>
@@ -11588,7 +11592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>0</v>
       </c>
@@ -11596,15 +11600,15 @@
         <v>215</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1</v>
       </c>
-      <c r="B421" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B421" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>2</v>
       </c>
@@ -11612,7 +11616,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>4</v>
       </c>
@@ -11620,7 +11624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>5</v>
       </c>
@@ -11628,7 +11632,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>6</v>
       </c>
@@ -11636,7 +11640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>213</v>
       </c>
@@ -11644,12 +11648,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>9</v>
       </c>
@@ -11687,12 +11691,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B429">
-        <v>1.08</v>
+        <f>1.08/1.53</f>
+        <v>0.70588235294117652</v>
       </c>
       <c r="E429" t="s">
         <v>7</v>
@@ -11704,12 +11709,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>57</v>
       </c>
       <c r="B430">
-        <v>2.49E-3</v>
+        <f>0.00249/1.53</f>
+        <v>1.6274509803921569E-3</v>
       </c>
       <c r="E430" t="s">
         <v>59</v>
@@ -11730,15 +11736,16 @@
         <v>0.20976176963403029</v>
       </c>
       <c r="L430" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>263</v>
       </c>
       <c r="B431">
-        <v>1.77E-5</v>
+        <f>0.0000177/1.53</f>
+        <v>1.1568627450980392E-5</v>
       </c>
       <c r="E431" t="s">
         <v>7</v>
@@ -11759,15 +11766,16 @@
         <v>0.45607017003965522</v>
       </c>
       <c r="L431" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>300</v>
       </c>
       <c r="B432">
-        <v>2.3699999999999999E-4</v>
+        <f>0.000237/1.53</f>
+        <v>1.5490196078431372E-4</v>
       </c>
       <c r="E432" t="s">
         <v>7</v>
@@ -11788,15 +11796,16 @@
         <v>0.45607017003965522</v>
       </c>
       <c r="L432" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>301</v>
       </c>
       <c r="B433">
-        <v>9.5699999999999995E-5</v>
+        <f>0.0000957/1.53</f>
+        <v>6.2549019607843127E-5</v>
       </c>
       <c r="E433" t="s">
         <v>7</v>
@@ -11817,15 +11826,16 @@
         <v>0.45607017003965522</v>
       </c>
       <c r="L433" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B434">
-        <v>0.25</v>
+        <f>0.25/1.53</f>
+        <v>0.16339869281045752</v>
       </c>
       <c r="E434" t="s">
         <v>7</v>
@@ -11837,12 +11847,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>83</v>
       </c>
       <c r="B435">
-        <v>8.2899999999999996E-5</v>
+        <f>0.0000829/1.53</f>
+        <v>5.4183006535947706E-5</v>
       </c>
       <c r="E435" t="s">
         <v>60</v>
@@ -11854,7 +11865,7 @@
         <v>20</v>
       </c>
       <c r="H435" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I435">
         <v>2</v>
@@ -11866,15 +11877,16 @@
         <v>0.20976176963403029</v>
       </c>
       <c r="L435" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>58</v>
       </c>
       <c r="B436">
-        <v>8.2899999999999996E-5</v>
+        <f>0.0000829/1.53</f>
+        <v>5.4183006535947706E-5</v>
       </c>
       <c r="E436" t="s">
         <v>60</v>
@@ -11886,7 +11898,7 @@
         <v>20</v>
       </c>
       <c r="H436" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I436">
         <v>2</v>
@@ -11898,15 +11910,16 @@
         <v>0.20976176963403029</v>
       </c>
       <c r="L436" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>222</v>
       </c>
       <c r="B437">
-        <v>1.9E-2</v>
+        <f>0.019/1.53</f>
+        <v>1.241830065359477E-2</v>
       </c>
       <c r="E437" t="s">
         <v>7</v>
@@ -11918,12 +11931,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>21</v>
       </c>
       <c r="B438">
-        <v>8.7899999999999992E-3</v>
+        <f>0.00879/1.53</f>
+        <v>5.745098039215686E-3</v>
       </c>
       <c r="E438" t="s">
         <v>22</v>
@@ -11950,12 +11964,13 @@
         <v>303</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>21</v>
       </c>
       <c r="B439">
-        <v>4.9799999999999998E-5</v>
+        <f>0.0000498/1.53</f>
+        <v>3.2549019607843137E-5</v>
       </c>
       <c r="E439" t="s">
         <v>22</v>
@@ -11982,12 +11997,13 @@
         <v>303</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B440">
-        <v>4.5859999999999998E-5</v>
+        <f>0.00004586/1.53</f>
+        <v>2.9973856209150325E-5</v>
       </c>
       <c r="E440" t="s">
         <v>22</v>
@@ -12011,15 +12027,16 @@
         <v>0.45607017003965522</v>
       </c>
       <c r="L440" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>215</v>
       </c>
       <c r="B441">
-        <v>1.53</v>
+        <f>1.53/1.53</f>
+        <v>1</v>
       </c>
       <c r="C441" t="s">
         <v>66</v>
@@ -12040,12 +12057,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B442">
-        <v>-0.46</v>
+        <f>-0.46/1.53</f>
+        <v>-0.30065359477124182</v>
       </c>
       <c r="C442" t="s">
         <v>69</v>
@@ -12060,12 +12078,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>53</v>
       </c>
       <c r="B443">
-        <v>1.55E-4</v>
+        <f>0.000155/1.53</f>
+        <v>1.0130718954248366E-4</v>
       </c>
       <c r="C443" t="s">
         <v>55</v>
@@ -12089,15 +12108,16 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L443" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>52</v>
       </c>
       <c r="B444">
-        <v>5.5600000000000002E-8</v>
+        <f>0.0000000556/1.53</f>
+        <v>3.6339869281045751E-8</v>
       </c>
       <c r="C444" t="s">
         <v>54</v>
@@ -12121,15 +12141,16 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L444" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>75</v>
       </c>
       <c r="B445">
-        <v>2.3800000000000002E-2</v>
+        <f>0.0238/1.53</f>
+        <v>1.5555555555555557E-2</v>
       </c>
       <c r="C445" t="s">
         <v>76</v>
@@ -12153,15 +12174,16 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L445" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>29</v>
       </c>
       <c r="B446">
-        <v>1.44E-2</v>
+        <f>0.0144/1.53</f>
+        <v>9.4117647058823521E-3</v>
       </c>
       <c r="C446" t="s">
         <v>16</v>
@@ -12176,12 +12198,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>73</v>
       </c>
       <c r="B447">
-        <v>1.22E-5</v>
+        <f>0.0000122/1.53</f>
+        <v>7.973856209150327E-6</v>
       </c>
       <c r="C447" t="s">
         <v>74</v>
@@ -12205,15 +12228,16 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L447" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>71</v>
       </c>
       <c r="B448">
-        <v>3.08E-11</v>
+        <f>0.0000000000308/1.53</f>
+        <v>2.0130718954248366E-11</v>
       </c>
       <c r="C448" t="s">
         <v>72</v>
@@ -12237,18 +12261,19 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L448" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
+      <c r="B449">
+        <f>0.0627/1.53</f>
+        <v>4.0980392156862749E-2</v>
+      </c>
+      <c r="C449" t="s">
         <v>442</v>
-      </c>
-      <c r="B449">
-        <v>6.2700000000000006E-2</v>
-      </c>
-      <c r="C449" t="s">
-        <v>443</v>
       </c>
       <c r="D449" t="s">
         <v>14</v>
@@ -12269,15 +12294,16 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L449" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>81</v>
       </c>
       <c r="B450">
-        <v>8.2899999999999996E-5</v>
+        <f>0.0000829/1.53</f>
+        <v>5.4183006535947706E-5</v>
       </c>
       <c r="C450" t="s">
         <v>82</v>
@@ -12301,15 +12327,16 @@
         <v>0.29664793948382651</v>
       </c>
       <c r="L450" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>409</v>
       </c>
       <c r="B451">
-        <v>1.54E-2</v>
+        <f>0.0154/1.53</f>
+        <v>1.0065359477124183E-2</v>
       </c>
       <c r="C451" t="s">
         <v>78</v>
@@ -12333,10 +12360,10 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L451" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>0</v>
       </c>
@@ -12344,15 +12371,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1</v>
       </c>
       <c r="B454" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>2</v>
       </c>
@@ -12360,7 +12387,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>5</v>
       </c>
@@ -12368,7 +12395,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>6</v>
       </c>
@@ -12376,7 +12403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>213</v>
       </c>
@@ -12384,12 +12411,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>9</v>
       </c>
@@ -12427,13 +12454,13 @@
         <v>1</v>
       </c>
       <c r="M460" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N460" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>183</v>
       </c>
@@ -12450,7 +12477,7 @@
         <v>20</v>
       </c>
       <c r="H461" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I461">
         <v>2</v>
@@ -12462,13 +12489,13 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L461" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M461">
         <v>1.55606191968828E-5</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>151</v>
       </c>
@@ -12497,13 +12524,13 @@
         <v>0.35608987629529709</v>
       </c>
       <c r="L462" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M462">
         <v>8.4863684140488602E-7</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>152</v>
       </c>
@@ -12532,13 +12559,13 @@
         <v>0.3541186241925155</v>
       </c>
       <c r="L463" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M463">
         <v>6.4229257012328897E-9</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>291</v>
       </c>
@@ -12567,13 +12594,13 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L464" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M464">
         <v>1.91118207484922E-8</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>116</v>
       </c>
@@ -12602,13 +12629,13 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L465" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M465">
         <v>9.2654649732402505E-4</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>184</v>
       </c>
@@ -12625,7 +12652,7 @@
         <v>20</v>
       </c>
       <c r="H466" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I466">
         <v>2</v>
@@ -12637,13 +12664,13 @@
         <v>0.21587033144922901</v>
       </c>
       <c r="L466" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M466">
         <v>7.17664459147306E-5</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>250</v>
       </c>
@@ -12672,13 +12699,13 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L467" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M467">
         <v>4.7308045462582802E-7</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>185</v>
       </c>
@@ -12695,7 +12722,7 @@
         <v>20</v>
       </c>
       <c r="H468" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I468">
         <v>2</v>
@@ -12707,13 +12734,13 @@
         <v>0.21587033144922901</v>
       </c>
       <c r="L468" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M468">
         <v>7.55436126385394E-8</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>252</v>
       </c>
@@ -12742,13 +12769,13 @@
         <v>0.81154174261093925</v>
       </c>
       <c r="L469" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M469">
         <v>1.10953178654857E-7</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>118</v>
       </c>
@@ -12777,13 +12804,13 @@
         <v>0.55389529696504913</v>
       </c>
       <c r="L470" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M470">
         <v>1.5630125721248699E-12</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>153</v>
       </c>
@@ -12809,10 +12836,10 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L471" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>293</v>
       </c>
@@ -12841,13 +12868,13 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L472" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M472">
         <v>4.7174811009129099E-6</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>121</v>
       </c>
@@ -12876,13 +12903,13 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L473" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M473">
         <v>6.6876972018751299E-7</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>258</v>
       </c>
@@ -12911,13 +12938,13 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L474" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M474">
         <v>7.9732840401622596E-7</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>296</v>
       </c>
@@ -12946,13 +12973,13 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L475" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M475">
         <v>6.2426905715800202E-7</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>298</v>
       </c>
@@ -12981,13 +13008,13 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L476" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M476">
         <v>2.43482893582134E-7</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>26</v>
       </c>
@@ -13016,13 +13043,13 @@
         <v>0.2163330765278394</v>
       </c>
       <c r="L477" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M477">
         <v>1.01936932435993E-4</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>125</v>
       </c>
@@ -13048,10 +13075,10 @@
         <v>0.55425625842204074</v>
       </c>
       <c r="L478" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>263</v>
       </c>
@@ -13077,10 +13104,10 @@
         <v>0.55389529696504913</v>
       </c>
       <c r="L479" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>300</v>
       </c>
@@ -13106,10 +13133,10 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L480" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>301</v>
       </c>
@@ -13135,10 +13162,10 @@
         <v>0.35608987629529709</v>
       </c>
       <c r="L481" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>301</v>
       </c>
@@ -13155,7 +13182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>154</v>
       </c>
@@ -13181,10 +13208,10 @@
         <v>0.552630075185924</v>
       </c>
       <c r="L483" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>128</v>
       </c>
@@ -13213,13 +13240,13 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L484" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M484">
         <v>5.2058060269292197E-5</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>21</v>
       </c>
@@ -13248,13 +13275,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L485" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M485">
         <v>1.47176176815489E-3</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>21</v>
       </c>
@@ -13283,13 +13310,13 @@
         <v>0.20712315177207979</v>
       </c>
       <c r="L486" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M486">
         <v>8.8716527537463005E-3</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>84</v>
       </c>
@@ -13315,10 +13342,10 @@
         <v>7.6157731058639086E-2</v>
       </c>
       <c r="L487" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>84</v>
       </c>
@@ -13335,7 +13362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>305</v>
       </c>
@@ -13364,13 +13391,13 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L489" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M489">
         <v>7.8463778271888698E-6</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>219</v>
       </c>
@@ -13396,7 +13423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>132</v>
       </c>
@@ -13416,7 +13443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>161</v>
       </c>
@@ -13445,10 +13472,10 @@
         <v>8.4852813742385708E-2</v>
       </c>
       <c r="L492" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>142</v>
       </c>
@@ -13477,10 +13504,10 @@
         <v>7.3484692283495343E-2</v>
       </c>
       <c r="L493" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>159</v>
       </c>
@@ -13509,10 +13536,10 @@
         <v>7.7459666924148338E-2</v>
       </c>
       <c r="L494" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>163</v>
       </c>
@@ -13541,10 +13568,10 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L495" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>24</v>
       </c>
@@ -13573,10 +13600,10 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L496" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>143</v>
       </c>
@@ -13605,18 +13632,18 @@
         <v>0.71414284285428498</v>
       </c>
       <c r="L497" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B498">
         <v>-4.9799999999999997E-2</v>
       </c>
       <c r="C498" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D498" t="s">
         <v>14</v>
@@ -13637,13 +13664,13 @@
         <v>0.08</v>
       </c>
       <c r="L498" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N498" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>145</v>
       </c>
@@ -13672,10 +13699,10 @@
         <v>8.8317608663278466E-2</v>
       </c>
       <c r="L499" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>165</v>
       </c>
@@ -13695,7 +13722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>29</v>
       </c>
@@ -13715,7 +13742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>166</v>
       </c>
@@ -13744,10 +13771,10 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L502" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>160</v>
       </c>
@@ -13776,10 +13803,10 @@
         <v>8.4852813742385708E-2</v>
       </c>
       <c r="L503" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>167</v>
       </c>
@@ -13808,10 +13835,10 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L504" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>168</v>
       </c>
@@ -13840,10 +13867,10 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L505" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>100</v>
       </c>
@@ -13863,7 +13890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>104</v>
       </c>
@@ -13883,7 +13910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>146</v>
       </c>
@@ -13912,13 +13939,13 @@
         <v>8.8317608663278466E-2</v>
       </c>
       <c r="L508" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N508" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>169</v>
       </c>
@@ -13947,13 +13974,13 @@
         <v>5.2915026221291808E-2</v>
       </c>
       <c r="L509" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N509" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>170</v>
       </c>
@@ -13982,10 +14009,10 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L510" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>147</v>
       </c>
@@ -14005,7 +14032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>171</v>
       </c>
@@ -14034,10 +14061,10 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L512" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>148</v>
       </c>
@@ -14066,10 +14093,10 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L513" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>172</v>
       </c>
@@ -14098,10 +14125,10 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L514" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>149</v>
       </c>
@@ -14130,10 +14157,10 @@
         <v>7.3484692283495343E-2</v>
       </c>
       <c r="L515" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>150</v>
       </c>
@@ -14153,7 +14180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>114</v>
       </c>
@@ -14182,15 +14209,15 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L517" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N517" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B518">
         <v>-9.5999999999999992E-3</v>
@@ -14211,7 +14238,7 @@
   </sheetData>
   <autoFilter ref="A1:T518" xr:uid="{A36E651A-1BBF-4B98-A20A-7DDAE3546228}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14223,27 +14250,27 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -14251,10 +14278,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -14262,7 +14289,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -14270,7 +14297,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -14278,7 +14305,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -14286,7 +14313,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -14294,7 +14321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -14302,7 +14329,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -14310,12 +14337,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -14341,7 +14368,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>B6</f>
         <v>vanadium bearing magnetite production</v>
@@ -14363,7 +14390,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -14384,7 +14411,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -14405,7 +14432,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -14426,7 +14453,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -14447,7 +14474,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -14468,7 +14495,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -14489,7 +14516,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -14510,7 +14537,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -14531,7 +14558,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -14552,7 +14579,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -14573,7 +14600,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>222</v>
       </c>
@@ -14593,7 +14620,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -14611,7 +14638,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -14629,7 +14656,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -14647,7 +14674,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -14665,7 +14692,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>224</v>
       </c>
@@ -14683,7 +14710,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -14701,7 +14728,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -14719,7 +14746,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -14737,7 +14764,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -14755,7 +14782,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -14773,7 +14800,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -14781,7 +14808,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -14789,7 +14816,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -14797,7 +14824,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -14805,7 +14832,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -14813,7 +14840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -14821,7 +14848,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -14829,12 +14856,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -14860,7 +14887,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>216</v>
       </c>
@@ -14881,7 +14908,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>215</v>
       </c>
@@ -14902,7 +14929,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -14923,7 +14950,7 @@
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -14944,7 +14971,7 @@
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -14965,7 +14992,7 @@
       </c>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -14986,7 +15013,7 @@
       </c>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -15007,7 +15034,7 @@
       </c>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -15028,7 +15055,7 @@
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -15049,7 +15076,7 @@
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>100</v>
       </c>
@@ -15070,7 +15097,7 @@
       </c>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -15091,7 +15118,7 @@
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -15112,7 +15139,7 @@
       </c>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -15133,7 +15160,7 @@
       </c>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>104</v>
       </c>
@@ -15154,7 +15181,7 @@
       </c>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -15175,7 +15202,7 @@
       </c>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -15196,7 +15223,7 @@
       </c>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -15217,7 +15244,7 @@
       </c>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -15238,7 +15265,7 @@
       </c>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -15259,7 +15286,7 @@
       </c>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -15277,7 +15304,7 @@
       </c>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -15295,7 +15322,7 @@
       </c>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -15313,7 +15340,7 @@
       </c>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -15331,7 +15358,7 @@
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -15349,7 +15376,7 @@
       </c>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>116</v>
       </c>
@@ -15367,7 +15394,7 @@
       </c>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -15385,7 +15412,7 @@
       </c>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -15403,7 +15430,7 @@
       </c>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -15421,7 +15448,7 @@
       </c>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -15439,7 +15466,7 @@
       </c>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -15457,7 +15484,7 @@
       </c>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -15475,7 +15502,7 @@
       </c>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -15493,7 +15520,7 @@
       </c>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -15511,7 +15538,7 @@
       </c>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -15529,7 +15556,7 @@
       </c>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>120</v>
       </c>
@@ -15547,7 +15574,7 @@
       </c>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>120</v>
       </c>
@@ -15565,7 +15592,7 @@
       </c>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>121</v>
       </c>
@@ -15583,7 +15610,7 @@
       </c>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>121</v>
       </c>
@@ -15601,7 +15628,7 @@
       </c>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>46</v>
       </c>
@@ -15619,7 +15646,7 @@
       </c>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>44</v>
       </c>
@@ -15637,7 +15664,7 @@
       </c>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -15655,7 +15682,7 @@
       </c>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -15673,7 +15700,7 @@
       </c>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -15691,7 +15718,7 @@
       </c>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -15709,7 +15736,7 @@
       </c>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -15727,7 +15754,7 @@
       </c>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>39</v>
       </c>
@@ -15745,7 +15772,7 @@
       </c>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>122</v>
       </c>
@@ -15763,7 +15790,7 @@
       </c>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>40</v>
       </c>
@@ -15781,7 +15808,7 @@
       </c>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>42</v>
       </c>
@@ -15799,7 +15826,7 @@
       </c>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>123</v>
       </c>
@@ -15817,7 +15844,7 @@
       </c>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -15835,7 +15862,7 @@
       </c>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -15853,7 +15880,7 @@
       </c>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>124</v>
       </c>
@@ -15871,7 +15898,7 @@
       </c>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>125</v>
       </c>
@@ -15889,7 +15916,7 @@
       </c>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>38</v>
       </c>
@@ -15907,7 +15934,7 @@
       </c>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -15925,7 +15952,7 @@
       </c>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>27</v>
       </c>
@@ -15943,7 +15970,7 @@
       </c>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>43</v>
       </c>
@@ -15961,7 +15988,7 @@
       </c>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -15979,7 +16006,7 @@
       </c>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>127</v>
       </c>
@@ -15997,7 +16024,7 @@
       </c>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -16015,7 +16042,7 @@
       </c>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>128</v>
       </c>
@@ -16033,7 +16060,7 @@
       </c>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>129</v>
       </c>
@@ -16051,7 +16078,7 @@
       </c>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -16069,7 +16096,7 @@
       </c>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -16087,7 +16114,7 @@
       </c>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>84</v>
       </c>
@@ -16105,7 +16132,7 @@
       </c>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -16123,7 +16150,7 @@
       </c>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>41</v>
       </c>
@@ -16141,10 +16168,10 @@
       </c>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -16152,7 +16179,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -16160,7 +16187,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>213</v>
       </c>
@@ -16168,7 +16195,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -16176,7 +16203,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -16184,7 +16211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -16192,7 +16219,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -16200,12 +16227,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>9</v>
       </c>
@@ -16231,7 +16258,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>132</v>
       </c>
@@ -16252,7 +16279,7 @@
       </c>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>216</v>
       </c>
@@ -16272,7 +16299,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -16292,7 +16319,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>143</v>
       </c>
@@ -16312,7 +16339,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>144</v>
       </c>
@@ -16332,7 +16359,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>145</v>
       </c>
@@ -16352,7 +16379,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>29</v>
       </c>
@@ -16372,7 +16399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>100</v>
       </c>
@@ -16392,7 +16419,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -16412,7 +16439,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -16432,7 +16459,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -16452,7 +16479,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -16472,7 +16499,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -16492,7 +16519,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -16509,7 +16536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>36</v>
       </c>
@@ -16526,7 +16553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>116</v>
       </c>
@@ -16543,7 +16570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -16560,7 +16587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>47</v>
       </c>
@@ -16577,7 +16604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>118</v>
       </c>
@@ -16594,7 +16621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>153</v>
       </c>
@@ -16611,7 +16638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>120</v>
       </c>
@@ -16628,7 +16655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>121</v>
       </c>
@@ -16645,7 +16672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>44</v>
       </c>
@@ -16662,7 +16689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -16679,7 +16706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>40</v>
       </c>
@@ -16696,7 +16723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -16713,7 +16740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>125</v>
       </c>
@@ -16730,7 +16757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>38</v>
       </c>
@@ -16747,7 +16774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -16764,7 +16791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>43</v>
       </c>
@@ -16781,7 +16808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -16798,7 +16825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>128</v>
       </c>
@@ -16815,7 +16842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -16832,7 +16859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -16849,7 +16876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>155</v>
       </c>
@@ -16866,7 +16893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>35</v>
       </c>
@@ -16883,10 +16910,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
@@ -16894,7 +16921,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -16902,7 +16929,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>213</v>
       </c>
@@ -16910,7 +16937,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -16918,7 +16945,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -16926,7 +16953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -16934,7 +16961,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -16942,12 +16969,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>9</v>
       </c>
@@ -16973,7 +17000,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>219</v>
       </c>
@@ -16995,7 +17022,7 @@
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>132</v>
       </c>
@@ -17017,7 +17044,7 @@
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>161</v>
       </c>
@@ -17039,7 +17066,7 @@
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>142</v>
       </c>
@@ -17061,7 +17088,7 @@
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>159</v>
       </c>
@@ -17083,7 +17110,7 @@
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>163</v>
       </c>
@@ -17105,7 +17132,7 @@
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -17127,7 +17154,7 @@
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>143</v>
       </c>
@@ -17149,7 +17176,7 @@
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>144</v>
       </c>
@@ -17171,7 +17198,7 @@
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>145</v>
       </c>
@@ -17193,7 +17220,7 @@
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>145</v>
       </c>
@@ -17215,7 +17242,7 @@
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>165</v>
       </c>
@@ -17237,7 +17264,7 @@
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>29</v>
       </c>
@@ -17258,7 +17285,7 @@
       </c>
       <c r="I183" s="4"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>166</v>
       </c>
@@ -17280,7 +17307,7 @@
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>160</v>
       </c>
@@ -17302,7 +17329,7 @@
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>167</v>
       </c>
@@ -17324,7 +17351,7 @@
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>168</v>
       </c>
@@ -17346,7 +17373,7 @@
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>100</v>
       </c>
@@ -17368,7 +17395,7 @@
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>104</v>
       </c>
@@ -17389,7 +17416,7 @@
       </c>
       <c r="I189" s="4"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>146</v>
       </c>
@@ -17411,7 +17438,7 @@
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>169</v>
       </c>
@@ -17433,7 +17460,7 @@
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>170</v>
       </c>
@@ -17455,7 +17482,7 @@
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>147</v>
       </c>
@@ -17477,7 +17504,7 @@
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>171</v>
       </c>
@@ -17499,7 +17526,7 @@
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>148</v>
       </c>
@@ -17521,7 +17548,7 @@
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>172</v>
       </c>
@@ -17543,7 +17570,7 @@
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>149</v>
       </c>
@@ -17565,7 +17592,7 @@
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>150</v>
       </c>
@@ -17587,7 +17614,7 @@
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>114</v>
       </c>
@@ -17609,7 +17636,7 @@
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>183</v>
       </c>
@@ -17628,7 +17655,7 @@
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>151</v>
       </c>
@@ -17647,7 +17674,7 @@
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>152</v>
       </c>
@@ -17666,7 +17693,7 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>36</v>
       </c>
@@ -17685,7 +17712,7 @@
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>36</v>
       </c>
@@ -17704,7 +17731,7 @@
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>116</v>
       </c>
@@ -17723,7 +17750,7 @@
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>116</v>
       </c>
@@ -17742,7 +17769,7 @@
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>184</v>
       </c>
@@ -17761,7 +17788,7 @@
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>32</v>
       </c>
@@ -17780,7 +17807,7 @@
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>32</v>
       </c>
@@ -17799,7 +17826,7 @@
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>185</v>
       </c>
@@ -17818,7 +17845,7 @@
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>47</v>
       </c>
@@ -17837,7 +17864,7 @@
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>47</v>
       </c>
@@ -17856,7 +17883,7 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>118</v>
       </c>
@@ -17875,7 +17902,7 @@
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>118</v>
       </c>
@@ -17894,7 +17921,7 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>153</v>
       </c>
@@ -17913,7 +17940,7 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>120</v>
       </c>
@@ -17932,7 +17959,7 @@
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>120</v>
       </c>
@@ -17951,7 +17978,7 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>121</v>
       </c>
@@ -17970,7 +17997,7 @@
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>44</v>
       </c>
@@ -17989,7 +18016,7 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>44</v>
       </c>
@@ -18008,7 +18035,7 @@
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>39</v>
       </c>
@@ -18027,7 +18054,7 @@
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>39</v>
       </c>
@@ -18046,7 +18073,7 @@
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>40</v>
       </c>
@@ -18065,7 +18092,7 @@
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>40</v>
       </c>
@@ -18084,7 +18111,7 @@
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>26</v>
       </c>
@@ -18103,7 +18130,7 @@
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>26</v>
       </c>
@@ -18122,7 +18149,7 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>125</v>
       </c>
@@ -18141,7 +18168,7 @@
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>125</v>
       </c>
@@ -18160,7 +18187,7 @@
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>38</v>
       </c>
@@ -18179,7 +18206,7 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>38</v>
       </c>
@@ -18198,7 +18225,7 @@
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>27</v>
       </c>
@@ -18217,7 +18244,7 @@
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>27</v>
       </c>
@@ -18236,7 +18263,7 @@
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>43</v>
       </c>
@@ -18255,7 +18282,7 @@
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>43</v>
       </c>
@@ -18274,7 +18301,7 @@
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>154</v>
       </c>
@@ -18293,7 +18320,7 @@
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>154</v>
       </c>
@@ -18312,7 +18339,7 @@
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>128</v>
       </c>
@@ -18331,7 +18358,7 @@
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>128</v>
       </c>
@@ -18350,7 +18377,7 @@
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -18369,7 +18396,7 @@
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>21</v>
       </c>
@@ -18388,7 +18415,7 @@
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -18407,7 +18434,7 @@
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>155</v>
       </c>
@@ -18426,7 +18453,7 @@
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>84</v>
       </c>
@@ -18445,7 +18472,7 @@
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>35</v>
       </c>
@@ -18464,7 +18491,7 @@
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>35</v>
       </c>
@@ -18483,7 +18510,7 @@
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>0</v>
       </c>
@@ -18491,7 +18518,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -18499,7 +18526,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>213</v>
       </c>
@@ -18507,7 +18534,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>2</v>
       </c>
@@ -18515,7 +18542,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -18523,7 +18550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -18531,7 +18558,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -18539,12 +18566,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>9</v>
       </c>
@@ -18570,7 +18597,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>220</v>
       </c>
@@ -18590,7 +18617,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>219</v>
       </c>
@@ -18611,7 +18638,7 @@
       </c>
       <c r="H257" s="4"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>188</v>
       </c>
@@ -18631,7 +18658,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>173</v>
       </c>
@@ -18651,7 +18678,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>190</v>
       </c>
@@ -18671,7 +18698,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>192</v>
       </c>
@@ -18691,7 +18718,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>194</v>
       </c>
@@ -18711,7 +18738,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>29</v>
       </c>
@@ -18731,7 +18758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>104</v>
       </c>
@@ -18751,7 +18778,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>199</v>
       </c>
@@ -18771,7 +18798,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>200</v>
       </c>
@@ -18791,7 +18818,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>203</v>
       </c>
@@ -18811,7 +18838,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>169</v>
       </c>
@@ -18831,7 +18858,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>114</v>
       </c>
@@ -18851,7 +18878,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>201</v>
       </c>
@@ -18868,7 +18895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>128</v>
       </c>
@@ -18886,7 +18913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -18903,7 +18930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>21</v>
       </c>
@@ -18935,20 +18962,20 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>204</v>
       </c>
@@ -18965,7 +18992,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>209</v>
       </c>
@@ -18989,7 +19016,7 @@
         <v>0.76740406381698656</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>211</v>
       </c>
@@ -19010,7 +19037,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>210</v>
       </c>
@@ -19034,7 +19061,7 @@
         <v>0.2325959361830135</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>SUM(B3:B5)</f>
         <v>1.3836599999999999</v>

--- a/premise/data/additional_inventories/lci-batteries-vanadium.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-vanadium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D276EDF-19FD-4070-A414-FD6768CCF514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB54B6AE-06EA-3F4A-ABB8-9DA1A1395614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1617,7 +1617,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1625,7 +1625,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1911,19 +1910,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36E651A-1BBF-4B98-A20A-7DDAE3546228}">
   <dimension ref="A1:S518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="B437" sqref="B437"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="1" max="1" width="54.5" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>453</v>
       </c>
@@ -1931,7 +1930,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>454</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +1946,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1955,7 +1954,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1963,7 +1962,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1971,7 +1970,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1987,7 +1986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>213</v>
       </c>
@@ -1995,12 +1994,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2023,7 +2022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2040,7 +2039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -2057,7 +2056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -2074,7 +2073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>231</v>
       </c>
@@ -2091,7 +2090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2108,7 +2107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>220</v>
       </c>
@@ -2128,7 +2127,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>190</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>188</v>
       </c>
@@ -2188,7 +2187,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2208,7 +2207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>192</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>190</v>
       </c>
@@ -2248,7 +2247,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>233</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>194</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>235</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -2348,7 +2347,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>199</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>236</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>219</v>
       </c>
@@ -2408,7 +2407,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2440,7 +2439,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2448,7 +2447,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2456,7 +2455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -2464,12 +2463,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -2513,7 +2512,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2546,7 +2545,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -2579,7 +2578,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>250</v>
       </c>
@@ -2612,7 +2611,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>252</v>
       </c>
@@ -2645,7 +2644,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>255</v>
       </c>
@@ -2708,7 +2707,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>257</v>
       </c>
@@ -2741,7 +2740,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>258</v>
       </c>
@@ -2774,7 +2773,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>260</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -2840,7 +2839,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -2870,7 +2869,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>263</v>
       </c>
@@ -2900,7 +2899,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -2966,7 +2965,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>237</v>
       </c>
@@ -2995,7 +2994,7 @@
         <v>1137179252766.3799</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>459</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>188</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>267</v>
       </c>
@@ -3071,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>267</v>
       </c>
@@ -3107,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>271</v>
       </c>
@@ -3143,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>274</v>
       </c>
@@ -3179,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>275</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>277</v>
       </c>
@@ -3248,7 +3247,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>279</v>
       </c>
@@ -3281,7 +3280,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>167</v>
       </c>
@@ -3314,7 +3313,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>146</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>282</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>148</v>
       </c>
@@ -3419,7 +3418,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>192</v>
       </c>
@@ -3472,7 +3471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -3492,7 +3491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>173</v>
       </c>
@@ -3512,7 +3511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>285</v>
       </c>
@@ -3548,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>287</v>
       </c>
@@ -3568,7 +3567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>215</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -3596,7 +3595,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -3604,7 +3603,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>213</v>
       </c>
@@ -3636,12 +3635,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>9</v>
       </c>
@@ -3685,7 +3684,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>151</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>0.42567593307585527</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>152</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>0.42567593307585527</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>291</v>
       </c>
@@ -3772,7 +3771,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -3801,7 +3800,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -3830,7 +3829,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>252</v>
       </c>
@@ -3859,7 +3858,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>118</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v>0.60099916805266884</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>0.31811947441173732</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>293</v>
       </c>
@@ -3943,7 +3942,7 @@
         <v>0.31811947441173732</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>121</v>
       </c>
@@ -3972,7 +3971,7 @@
         <v>0.31811947441173732</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>258</v>
       </c>
@@ -4001,7 +4000,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>296</v>
       </c>
@@ -4030,7 +4029,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>298</v>
       </c>
@@ -4059,7 +4058,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -4088,7 +4087,7 @@
         <v>0.31811947441173732</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>125</v>
       </c>
@@ -4114,7 +4113,7 @@
         <v>0.60099916805266884</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>263</v>
       </c>
@@ -4140,7 +4139,7 @@
         <v>0.60099916805266884</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>300</v>
       </c>
@@ -4166,7 +4165,7 @@
         <v>0.31811947441173732</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>301</v>
       </c>
@@ -4192,7 +4191,7 @@
         <v>0.42567593307585527</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>154</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>0.60099916805266884</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>128</v>
       </c>
@@ -4247,7 +4246,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -4279,7 +4278,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -4311,7 +4310,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>155</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>305</v>
       </c>
@@ -4372,7 +4371,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>132</v>
       </c>
@@ -4401,7 +4400,7 @@
         <v>66239548000</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>142</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>143</v>
       </c>
@@ -4459,7 +4458,7 @@
         <v>0.70710678118654757</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>144</v>
       </c>
@@ -4491,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>145</v>
       </c>
@@ -4523,7 +4522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -4543,7 +4542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>100</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>146</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>309</v>
       </c>
@@ -4633,7 +4632,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>147</v>
       </c>
@@ -4662,7 +4661,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>148</v>
       </c>
@@ -4691,7 +4690,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>149</v>
       </c>
@@ -4720,7 +4719,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>150</v>
       </c>
@@ -4749,7 +4748,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>216</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -4777,7 +4776,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1</v>
       </c>
@@ -4785,7 +4784,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -4817,7 +4816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>213</v>
       </c>
@@ -4825,12 +4824,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -4850,7 +4849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>220</v>
       </c>
@@ -4871,7 +4870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>237</v>
       </c>
@@ -4892,7 +4891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
@@ -4900,7 +4899,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -4908,7 +4907,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="140" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -4933,7 +4932,7 @@
       <c r="R140"/>
       <c r="S140"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -4941,7 +4940,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -4949,7 +4948,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -4957,7 +4956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>213</v>
       </c>
@@ -4965,12 +4964,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -4990,7 +4989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>312</v>
       </c>
@@ -5010,7 +5009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>220</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>220</v>
       </c>
@@ -5050,7 +5049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -5058,7 +5057,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -5074,7 +5073,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -5082,7 +5081,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -5090,7 +5089,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -5098,7 +5097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>213</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>8</v>
       </c>
@@ -5129,7 +5128,7 @@
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -5152,7 +5151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>317</v>
       </c>
@@ -5169,7 +5168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>116</v>
       </c>
@@ -5186,7 +5185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>255</v>
       </c>
@@ -5203,7 +5202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -5220,7 +5219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>155</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>314</v>
       </c>
@@ -5257,7 +5256,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>312</v>
       </c>
@@ -5277,7 +5276,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>461</v>
       </c>
@@ -5297,7 +5296,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>319</v>
       </c>
@@ -5317,7 +5316,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>321</v>
       </c>
@@ -5337,7 +5336,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>323</v>
       </c>
@@ -5357,7 +5356,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>233</v>
       </c>
@@ -5377,7 +5376,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>287</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>235</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>325</v>
       </c>
@@ -5437,7 +5436,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>200</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>0</v>
       </c>
@@ -5465,7 +5464,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -5481,7 +5480,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -5489,7 +5488,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>213</v>
       </c>
@@ -5505,12 +5504,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>9</v>
       </c>
@@ -5554,7 +5553,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>330</v>
       </c>
@@ -5586,7 +5585,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>291</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>19</v>
       </c>
@@ -5650,7 +5649,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>116</v>
       </c>
@@ -5682,7 +5681,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>250</v>
       </c>
@@ -5714,7 +5713,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>337</v>
       </c>
@@ -5746,7 +5745,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>252</v>
       </c>
@@ -5778,7 +5777,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>117</v>
       </c>
@@ -5810,7 +5809,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>293</v>
       </c>
@@ -5842,7 +5841,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>121</v>
       </c>
@@ -5874,7 +5873,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>257</v>
       </c>
@@ -5906,7 +5905,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>258</v>
       </c>
@@ -5938,7 +5937,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>260</v>
       </c>
@@ -5970,7 +5969,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>296</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>296</v>
       </c>
@@ -6034,7 +6033,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>122</v>
       </c>
@@ -6066,7 +6065,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>345</v>
       </c>
@@ -6095,7 +6094,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>298</v>
       </c>
@@ -6127,7 +6126,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>123</v>
       </c>
@@ -6159,7 +6158,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>26</v>
       </c>
@@ -6191,7 +6190,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>263</v>
       </c>
@@ -6220,7 +6219,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>300</v>
       </c>
@@ -6249,7 +6248,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>301</v>
       </c>
@@ -6278,7 +6277,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>126</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>351</v>
       </c>
@@ -6342,7 +6341,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>128</v>
       </c>
@@ -6374,7 +6373,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>129</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -6435,7 +6434,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>305</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>327</v>
       </c>
@@ -6531,7 +6530,7 @@
         <v>10100000000</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>102</v>
       </c>
@@ -6563,7 +6562,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>355</v>
       </c>
@@ -6595,7 +6594,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>358</v>
       </c>
@@ -6615,7 +6614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>94</v>
       </c>
@@ -6647,7 +6646,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>112</v>
       </c>
@@ -6682,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>96</v>
       </c>
@@ -6714,7 +6713,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>98</v>
       </c>
@@ -6746,7 +6745,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>114</v>
       </c>
@@ -6781,7 +6780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>365</v>
       </c>
@@ -6801,7 +6800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>366</v>
       </c>
@@ -6833,7 +6832,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>110</v>
       </c>
@@ -6868,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>369</v>
       </c>
@@ -6888,7 +6887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>0</v>
       </c>
@@ -6896,7 +6895,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1</v>
       </c>
@@ -6904,7 +6903,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>2</v>
       </c>
@@ -6912,7 +6911,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -6920,7 +6919,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -6928,7 +6927,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -6936,7 +6935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>213</v>
       </c>
@@ -6944,12 +6943,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>9</v>
       </c>
@@ -6993,7 +6992,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>330</v>
       </c>
@@ -7025,7 +7024,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>375</v>
       </c>
@@ -7057,7 +7056,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>291</v>
       </c>
@@ -7089,7 +7088,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -7121,7 +7120,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>116</v>
       </c>
@@ -7153,7 +7152,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -7185,7 +7184,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>252</v>
       </c>
@@ -7217,7 +7216,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>118</v>
       </c>
@@ -7249,7 +7248,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>293</v>
       </c>
@@ -7281,7 +7280,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>121</v>
       </c>
@@ -7313,7 +7312,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>258</v>
       </c>
@@ -7345,7 +7344,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>260</v>
       </c>
@@ -7377,7 +7376,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>296</v>
       </c>
@@ -7409,7 +7408,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>122</v>
       </c>
@@ -7441,7 +7440,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>345</v>
       </c>
@@ -7470,7 +7469,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>298</v>
       </c>
@@ -7502,7 +7501,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>26</v>
       </c>
@@ -7534,7 +7533,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>201</v>
       </c>
@@ -7566,7 +7565,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>125</v>
       </c>
@@ -7595,7 +7594,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>263</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>300</v>
       </c>
@@ -7650,7 +7649,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>301</v>
       </c>
@@ -7679,7 +7678,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>154</v>
       </c>
@@ -7708,7 +7707,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>382</v>
       </c>
@@ -7740,7 +7739,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>128</v>
       </c>
@@ -7772,7 +7771,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>384</v>
       </c>
@@ -7804,7 +7803,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>386</v>
       </c>
@@ -7836,7 +7835,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>84</v>
       </c>
@@ -7868,7 +7867,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>371</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>113558550000</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>388</v>
       </c>
@@ -7917,7 +7916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>390</v>
       </c>
@@ -7937,7 +7936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>102</v>
       </c>
@@ -7969,7 +7968,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>100</v>
       </c>
@@ -7989,7 +7988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>392</v>
       </c>
@@ -8009,7 +8008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>149</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>285</v>
       </c>
@@ -8064,7 +8063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>285</v>
       </c>
@@ -8099,7 +8098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>287</v>
       </c>
@@ -8119,7 +8118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>395</v>
       </c>
@@ -8139,7 +8138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>369</v>
       </c>
@@ -8159,7 +8158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>0</v>
       </c>
@@ -8167,7 +8166,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -8175,7 +8174,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -8183,7 +8182,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -8191,7 +8190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>5</v>
       </c>
@@ -8199,7 +8198,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -8207,7 +8206,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>213</v>
       </c>
@@ -8223,12 +8222,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -8251,7 +8250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>255</v>
       </c>
@@ -8268,7 +8267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>345</v>
       </c>
@@ -8285,7 +8284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>155</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>397</v>
       </c>
@@ -8322,7 +8321,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>399</v>
       </c>
@@ -8342,7 +8341,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>401</v>
       </c>
@@ -8362,7 +8361,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>403</v>
       </c>
@@ -8382,7 +8381,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>405</v>
       </c>
@@ -8402,7 +8401,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>407</v>
       </c>
@@ -8422,7 +8421,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>194</v>
       </c>
@@ -8442,7 +8441,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>287</v>
       </c>
@@ -8462,7 +8461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>409</v>
       </c>
@@ -8482,7 +8481,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>410</v>
       </c>
@@ -8502,7 +8501,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>0</v>
       </c>
@@ -8510,7 +8509,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1</v>
       </c>
@@ -8518,7 +8517,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>2</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -8534,7 +8533,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -8542,7 +8541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>213</v>
       </c>
@@ -8550,12 +8549,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>9</v>
       </c>
@@ -8596,7 +8595,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>19</v>
       </c>
@@ -8628,7 +8627,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>116</v>
       </c>
@@ -8660,7 +8659,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>118</v>
       </c>
@@ -8692,7 +8691,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>413</v>
       </c>
@@ -8724,7 +8723,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>258</v>
       </c>
@@ -8756,7 +8755,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>260</v>
       </c>
@@ -8788,7 +8787,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>298</v>
       </c>
@@ -8820,7 +8819,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>26</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>263</v>
       </c>
@@ -8881,7 +8880,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>300</v>
       </c>
@@ -8910,7 +8909,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>301</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>128</v>
       </c>
@@ -8971,7 +8970,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>21</v>
       </c>
@@ -9003,7 +9002,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>21</v>
       </c>
@@ -9035,7 +9034,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>155</v>
       </c>
@@ -9067,7 +9066,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>84</v>
       </c>
@@ -9099,7 +9098,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>215</v>
       </c>
@@ -9125,7 +9124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>460</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>388</v>
       </c>
@@ -9180,7 +9179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>418</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>327</v>
       </c>
@@ -9220,7 +9219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>371</v>
       </c>
@@ -9240,7 +9239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>419</v>
       </c>
@@ -9272,7 +9271,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>100</v>
       </c>
@@ -9304,7 +9303,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>146</v>
       </c>
@@ -9339,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>421</v>
       </c>
@@ -9359,7 +9358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>423</v>
       </c>
@@ -9379,7 +9378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>424</v>
       </c>
@@ -9411,7 +9410,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>285</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>0</v>
       </c>
@@ -9454,7 +9453,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1</v>
       </c>
@@ -9462,7 +9461,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>2</v>
       </c>
@@ -9470,7 +9469,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>5</v>
       </c>
@@ -9478,7 +9477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>6</v>
       </c>
@@ -9486,7 +9485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>213</v>
       </c>
@@ -9494,12 +9493,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>9</v>
       </c>
@@ -9543,7 +9542,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>330</v>
       </c>
@@ -9575,7 +9574,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>291</v>
       </c>
@@ -9604,7 +9603,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>291</v>
       </c>
@@ -9636,7 +9635,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>19</v>
       </c>
@@ -9665,7 +9664,7 @@
         <v>0.2032240143290158</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>116</v>
       </c>
@@ -9694,7 +9693,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>250</v>
       </c>
@@ -9723,7 +9722,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>250</v>
       </c>
@@ -9755,7 +9754,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>337</v>
       </c>
@@ -9787,7 +9786,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>252</v>
       </c>
@@ -9816,7 +9815,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>252</v>
       </c>
@@ -9848,7 +9847,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>117</v>
       </c>
@@ -9880,7 +9879,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>118</v>
       </c>
@@ -9909,7 +9908,7 @@
         <v>0.58420886675914119</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>119</v>
       </c>
@@ -9935,7 +9934,7 @@
         <v>0.28513154858766498</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>293</v>
       </c>
@@ -9964,7 +9963,7 @@
         <v>0.28513154858766498</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>121</v>
       </c>
@@ -9993,7 +9992,7 @@
         <v>0.28513154858766498</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>121</v>
       </c>
@@ -10025,7 +10024,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>257</v>
       </c>
@@ -10057,7 +10056,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>258</v>
       </c>
@@ -10086,7 +10085,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>258</v>
       </c>
@@ -10118,7 +10117,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>260</v>
       </c>
@@ -10150,7 +10149,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>260</v>
       </c>
@@ -10179,7 +10178,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>296</v>
       </c>
@@ -10211,7 +10210,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>296</v>
       </c>
@@ -10240,7 +10239,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>296</v>
       </c>
@@ -10272,7 +10271,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>122</v>
       </c>
@@ -10304,7 +10303,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>345</v>
       </c>
@@ -10333,7 +10332,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>298</v>
       </c>
@@ -10362,7 +10361,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>298</v>
       </c>
@@ -10394,7 +10393,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>123</v>
       </c>
@@ -10426,7 +10425,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>26</v>
       </c>
@@ -10455,7 +10454,7 @@
         <v>0.28513154858766498</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>26</v>
       </c>
@@ -10487,7 +10486,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>125</v>
       </c>
@@ -10513,7 +10512,7 @@
         <v>0.58420886675914119</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>263</v>
       </c>
@@ -10539,7 +10538,7 @@
         <v>0.58420886675914119</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>263</v>
       </c>
@@ -10568,7 +10567,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>300</v>
       </c>
@@ -10597,7 +10596,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>301</v>
       </c>
@@ -10626,7 +10625,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>126</v>
       </c>
@@ -10658,7 +10657,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>351</v>
       </c>
@@ -10690,7 +10689,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>128</v>
       </c>
@@ -10719,7 +10718,7 @@
         <v>0.2032240143290158</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>128</v>
       </c>
@@ -10751,7 +10750,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>129</v>
       </c>
@@ -10780,7 +10779,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>386</v>
       </c>
@@ -10809,7 +10808,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>21</v>
       </c>
@@ -10838,7 +10837,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>21</v>
       </c>
@@ -10870,7 +10869,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>84</v>
       </c>
@@ -10899,7 +10898,7 @@
         <v>0.20024984394500789</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>305</v>
       </c>
@@ -10928,7 +10927,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>305</v>
       </c>
@@ -10960,7 +10959,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>216</v>
       </c>
@@ -10992,7 +10991,7 @@
         <v>473333424000</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>428</v>
       </c>
@@ -11024,7 +11023,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>429</v>
       </c>
@@ -11056,7 +11055,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>102</v>
       </c>
@@ -11088,7 +11087,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>92</v>
       </c>
@@ -11120,7 +11119,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>87</v>
       </c>
@@ -11140,7 +11139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>62</v>
       </c>
@@ -11160,7 +11159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>29</v>
       </c>
@@ -11180,7 +11179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>100</v>
       </c>
@@ -11212,7 +11211,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>104</v>
       </c>
@@ -11244,7 +11243,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>90</v>
       </c>
@@ -11264,7 +11263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>94</v>
       </c>
@@ -11284,7 +11283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>112</v>
       </c>
@@ -11304,7 +11303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>96</v>
       </c>
@@ -11336,7 +11335,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>98</v>
       </c>
@@ -11368,7 +11367,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>114</v>
       </c>
@@ -11403,7 +11402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>114</v>
       </c>
@@ -11438,7 +11437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>88</v>
       </c>
@@ -11470,7 +11469,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>365</v>
       </c>
@@ -11502,7 +11501,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>110</v>
       </c>
@@ -11537,7 +11536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>110</v>
       </c>
@@ -11572,7 +11571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>215</v>
       </c>
@@ -11592,7 +11591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>0</v>
       </c>
@@ -11600,15 +11599,15 @@
         <v>215</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1</v>
       </c>
-      <c r="B421" s="5" t="s">
+      <c r="B421" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>2</v>
       </c>
@@ -11616,7 +11615,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>4</v>
       </c>
@@ -11624,7 +11623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>5</v>
       </c>
@@ -11632,7 +11631,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>6</v>
       </c>
@@ -11640,7 +11639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>213</v>
       </c>
@@ -11648,12 +11647,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>9</v>
       </c>
@@ -11691,7 +11690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>462</v>
       </c>
@@ -11709,7 +11708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>57</v>
       </c>
@@ -11739,7 +11738,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>263</v>
       </c>
@@ -11769,7 +11768,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>300</v>
       </c>
@@ -11799,7 +11798,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>301</v>
       </c>
@@ -11829,7 +11828,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>463</v>
       </c>
@@ -11847,7 +11846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>83</v>
       </c>
@@ -11880,7 +11879,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>58</v>
       </c>
@@ -11913,7 +11912,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>222</v>
       </c>
@@ -11931,7 +11930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>21</v>
       </c>
@@ -11964,7 +11963,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>21</v>
       </c>
@@ -11997,7 +11996,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>436</v>
       </c>
@@ -12030,7 +12029,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>215</v>
       </c>
@@ -12057,7 +12056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>438</v>
       </c>
@@ -12078,7 +12077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>53</v>
       </c>
@@ -12111,7 +12110,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>52</v>
       </c>
@@ -12144,7 +12143,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>75</v>
       </c>
@@ -12177,7 +12176,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>29</v>
       </c>
@@ -12198,7 +12197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>73</v>
       </c>
@@ -12231,7 +12230,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>71</v>
       </c>
@@ -12264,7 +12263,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>441</v>
       </c>
@@ -12297,7 +12296,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>81</v>
       </c>
@@ -12330,7 +12329,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>409</v>
       </c>
@@ -12363,7 +12362,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>0</v>
       </c>
@@ -12371,7 +12370,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1</v>
       </c>
@@ -12379,7 +12378,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>2</v>
       </c>
@@ -12387,7 +12386,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>5</v>
       </c>
@@ -12395,7 +12394,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>6</v>
       </c>
@@ -12403,7 +12402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>213</v>
       </c>
@@ -12411,12 +12410,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>9</v>
       </c>
@@ -12460,7 +12459,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>183</v>
       </c>
@@ -12495,7 +12494,7 @@
         <v>1.55606191968828E-5</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>151</v>
       </c>
@@ -12530,7 +12529,7 @@
         <v>8.4863684140488602E-7</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>152</v>
       </c>
@@ -12565,7 +12564,7 @@
         <v>6.4229257012328897E-9</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>291</v>
       </c>
@@ -12600,7 +12599,7 @@
         <v>1.91118207484922E-8</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>116</v>
       </c>
@@ -12635,7 +12634,7 @@
         <v>9.2654649732402505E-4</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>184</v>
       </c>
@@ -12670,7 +12669,7 @@
         <v>7.17664459147306E-5</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>250</v>
       </c>
@@ -12705,7 +12704,7 @@
         <v>4.7308045462582802E-7</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>185</v>
       </c>
@@ -12740,7 +12739,7 @@
         <v>7.55436126385394E-8</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>252</v>
       </c>
@@ -12775,7 +12774,7 @@
         <v>1.10953178654857E-7</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>118</v>
       </c>
@@ -12810,7 +12809,7 @@
         <v>1.5630125721248699E-12</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>153</v>
       </c>
@@ -12839,7 +12838,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>293</v>
       </c>
@@ -12874,7 +12873,7 @@
         <v>4.7174811009129099E-6</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>121</v>
       </c>
@@ -12909,7 +12908,7 @@
         <v>6.6876972018751299E-7</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>258</v>
       </c>
@@ -12944,7 +12943,7 @@
         <v>7.9732840401622596E-7</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>296</v>
       </c>
@@ -12979,7 +12978,7 @@
         <v>6.2426905715800202E-7</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>298</v>
       </c>
@@ -13014,7 +13013,7 @@
         <v>2.43482893582134E-7</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>26</v>
       </c>
@@ -13049,7 +13048,7 @@
         <v>1.01936932435993E-4</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>125</v>
       </c>
@@ -13078,7 +13077,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>263</v>
       </c>
@@ -13107,7 +13106,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>300</v>
       </c>
@@ -13136,7 +13135,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>301</v>
       </c>
@@ -13165,7 +13164,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>301</v>
       </c>
@@ -13182,7 +13181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>154</v>
       </c>
@@ -13211,7 +13210,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>128</v>
       </c>
@@ -13246,7 +13245,7 @@
         <v>5.2058060269292197E-5</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>21</v>
       </c>
@@ -13281,7 +13280,7 @@
         <v>1.47176176815489E-3</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>21</v>
       </c>
@@ -13316,7 +13315,7 @@
         <v>8.8716527537463005E-3</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>84</v>
       </c>
@@ -13345,7 +13344,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>84</v>
       </c>
@@ -13362,7 +13361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>305</v>
       </c>
@@ -13397,7 +13396,7 @@
         <v>7.8463778271888698E-6</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>219</v>
       </c>
@@ -13423,7 +13422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>132</v>
       </c>
@@ -13443,7 +13442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>161</v>
       </c>
@@ -13475,7 +13474,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>142</v>
       </c>
@@ -13507,7 +13506,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>159</v>
       </c>
@@ -13539,7 +13538,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>163</v>
       </c>
@@ -13571,7 +13570,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>24</v>
       </c>
@@ -13603,7 +13602,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>143</v>
       </c>
@@ -13635,7 +13634,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>450</v>
       </c>
@@ -13670,7 +13669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>145</v>
       </c>
@@ -13702,7 +13701,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>165</v>
       </c>
@@ -13722,7 +13721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>29</v>
       </c>
@@ -13742,7 +13741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>166</v>
       </c>
@@ -13774,7 +13773,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>160</v>
       </c>
@@ -13806,7 +13805,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>167</v>
       </c>
@@ -13838,7 +13837,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>168</v>
       </c>
@@ -13870,7 +13869,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>100</v>
       </c>
@@ -13890,7 +13889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>104</v>
       </c>
@@ -13910,7 +13909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>146</v>
       </c>
@@ -13945,7 +13944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>169</v>
       </c>
@@ -13980,7 +13979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>170</v>
       </c>
@@ -14012,7 +14011,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>147</v>
       </c>
@@ -14032,7 +14031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>171</v>
       </c>
@@ -14064,7 +14063,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>148</v>
       </c>
@@ -14096,7 +14095,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>172</v>
       </c>
@@ -14128,7 +14127,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>149</v>
       </c>
@@ -14160,7 +14159,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>150</v>
       </c>
@@ -14180,7 +14179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>114</v>
       </c>
@@ -14215,7 +14214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>452</v>
       </c>
@@ -14250,27 +14249,27 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -14278,10 +14277,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -14289,7 +14288,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -14297,7 +14296,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -14305,7 +14304,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -14313,7 +14312,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -14321,7 +14320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -14329,7 +14328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -14337,12 +14336,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -14368,7 +14367,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>B6</f>
         <v>vanadium bearing magnetite production</v>
@@ -14390,7 +14389,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -14411,7 +14410,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -14432,7 +14431,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -14453,7 +14452,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -14474,7 +14473,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -14495,7 +14494,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -14516,7 +14515,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -14537,7 +14536,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -14558,7 +14557,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -14579,7 +14578,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -14600,7 +14599,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>222</v>
       </c>
@@ -14620,7 +14619,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -14638,7 +14637,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -14656,7 +14655,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -14674,7 +14673,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -14692,7 +14691,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>224</v>
       </c>
@@ -14710,7 +14709,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -14728,7 +14727,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -14746,7 +14745,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -14764,7 +14763,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -14782,7 +14781,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -14800,7 +14799,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -14808,7 +14807,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -14816,7 +14815,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -14824,7 +14823,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -14832,7 +14831,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -14840,7 +14839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -14848,7 +14847,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -14856,12 +14855,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -14887,7 +14886,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>216</v>
       </c>
@@ -14908,7 +14907,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>215</v>
       </c>
@@ -14929,7 +14928,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -14950,7 +14949,7 @@
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -14971,7 +14970,7 @@
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -14992,7 +14991,7 @@
       </c>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -15013,7 +15012,7 @@
       </c>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -15034,7 +15033,7 @@
       </c>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -15055,7 +15054,7 @@
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -15076,7 +15075,7 @@
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>100</v>
       </c>
@@ -15097,7 +15096,7 @@
       </c>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -15118,7 +15117,7 @@
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -15139,7 +15138,7 @@
       </c>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -15160,7 +15159,7 @@
       </c>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>104</v>
       </c>
@@ -15181,7 +15180,7 @@
       </c>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -15202,7 +15201,7 @@
       </c>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -15223,7 +15222,7 @@
       </c>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -15244,7 +15243,7 @@
       </c>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -15265,7 +15264,7 @@
       </c>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -15286,7 +15285,7 @@
       </c>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -15304,7 +15303,7 @@
       </c>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -15322,7 +15321,7 @@
       </c>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -15340,7 +15339,7 @@
       </c>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -15358,7 +15357,7 @@
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -15376,7 +15375,7 @@
       </c>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>116</v>
       </c>
@@ -15394,7 +15393,7 @@
       </c>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -15412,7 +15411,7 @@
       </c>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -15430,7 +15429,7 @@
       </c>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -15448,7 +15447,7 @@
       </c>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -15466,7 +15465,7 @@
       </c>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -15484,7 +15483,7 @@
       </c>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -15502,7 +15501,7 @@
       </c>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -15520,7 +15519,7 @@
       </c>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -15538,7 +15537,7 @@
       </c>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -15556,7 +15555,7 @@
       </c>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>120</v>
       </c>
@@ -15574,7 +15573,7 @@
       </c>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>120</v>
       </c>
@@ -15592,7 +15591,7 @@
       </c>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>121</v>
       </c>
@@ -15610,7 +15609,7 @@
       </c>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>121</v>
       </c>
@@ -15628,7 +15627,7 @@
       </c>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>46</v>
       </c>
@@ -15646,7 +15645,7 @@
       </c>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>44</v>
       </c>
@@ -15664,7 +15663,7 @@
       </c>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -15682,7 +15681,7 @@
       </c>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -15700,7 +15699,7 @@
       </c>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -15718,7 +15717,7 @@
       </c>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -15736,7 +15735,7 @@
       </c>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -15754,7 +15753,7 @@
       </c>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>39</v>
       </c>
@@ -15772,7 +15771,7 @@
       </c>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>122</v>
       </c>
@@ -15790,7 +15789,7 @@
       </c>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>40</v>
       </c>
@@ -15808,7 +15807,7 @@
       </c>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>42</v>
       </c>
@@ -15826,7 +15825,7 @@
       </c>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>123</v>
       </c>
@@ -15844,7 +15843,7 @@
       </c>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -15862,7 +15861,7 @@
       </c>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -15880,7 +15879,7 @@
       </c>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>124</v>
       </c>
@@ -15898,7 +15897,7 @@
       </c>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>125</v>
       </c>
@@ -15916,7 +15915,7 @@
       </c>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>38</v>
       </c>
@@ -15934,7 +15933,7 @@
       </c>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -15952,7 +15951,7 @@
       </c>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>27</v>
       </c>
@@ -15970,7 +15969,7 @@
       </c>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>43</v>
       </c>
@@ -15988,7 +15987,7 @@
       </c>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -16006,7 +16005,7 @@
       </c>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>127</v>
       </c>
@@ -16024,7 +16023,7 @@
       </c>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -16042,7 +16041,7 @@
       </c>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>128</v>
       </c>
@@ -16060,7 +16059,7 @@
       </c>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>129</v>
       </c>
@@ -16078,7 +16077,7 @@
       </c>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -16096,7 +16095,7 @@
       </c>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -16114,7 +16113,7 @@
       </c>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>84</v>
       </c>
@@ -16132,7 +16131,7 @@
       </c>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -16150,7 +16149,7 @@
       </c>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>41</v>
       </c>
@@ -16168,10 +16167,10 @@
       </c>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -16179,7 +16178,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -16187,7 +16186,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>213</v>
       </c>
@@ -16195,7 +16194,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -16203,7 +16202,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -16211,7 +16210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -16219,7 +16218,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -16227,12 +16226,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>9</v>
       </c>
@@ -16258,7 +16257,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>132</v>
       </c>
@@ -16279,7 +16278,7 @@
       </c>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>216</v>
       </c>
@@ -16299,7 +16298,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -16319,7 +16318,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>143</v>
       </c>
@@ -16339,7 +16338,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>144</v>
       </c>
@@ -16359,7 +16358,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>145</v>
       </c>
@@ -16379,7 +16378,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>29</v>
       </c>
@@ -16399,7 +16398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>100</v>
       </c>
@@ -16419,7 +16418,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -16439,7 +16438,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -16459,7 +16458,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -16479,7 +16478,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -16499,7 +16498,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -16519,7 +16518,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -16536,7 +16535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>36</v>
       </c>
@@ -16553,7 +16552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>116</v>
       </c>
@@ -16570,7 +16569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -16587,7 +16586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>47</v>
       </c>
@@ -16604,7 +16603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>118</v>
       </c>
@@ -16621,7 +16620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>153</v>
       </c>
@@ -16638,7 +16637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>120</v>
       </c>
@@ -16655,7 +16654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>121</v>
       </c>
@@ -16672,7 +16671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>44</v>
       </c>
@@ -16689,7 +16688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -16706,7 +16705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>40</v>
       </c>
@@ -16723,7 +16722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -16740,7 +16739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>125</v>
       </c>
@@ -16757,7 +16756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>38</v>
       </c>
@@ -16774,7 +16773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -16791,7 +16790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>43</v>
       </c>
@@ -16808,7 +16807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -16825,7 +16824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>128</v>
       </c>
@@ -16842,7 +16841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -16859,7 +16858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -16876,7 +16875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>155</v>
       </c>
@@ -16893,7 +16892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>35</v>
       </c>
@@ -16910,10 +16909,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
@@ -16921,7 +16920,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -16929,7 +16928,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>213</v>
       </c>
@@ -16937,7 +16936,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -16945,7 +16944,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -16953,7 +16952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -16961,7 +16960,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -16969,12 +16968,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>9</v>
       </c>
@@ -17000,7 +16999,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>219</v>
       </c>
@@ -17022,7 +17021,7 @@
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>132</v>
       </c>
@@ -17044,7 +17043,7 @@
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>161</v>
       </c>
@@ -17066,7 +17065,7 @@
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>142</v>
       </c>
@@ -17088,7 +17087,7 @@
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>159</v>
       </c>
@@ -17110,7 +17109,7 @@
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>163</v>
       </c>
@@ -17132,7 +17131,7 @@
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -17154,7 +17153,7 @@
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>143</v>
       </c>
@@ -17176,7 +17175,7 @@
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>144</v>
       </c>
@@ -17198,7 +17197,7 @@
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>145</v>
       </c>
@@ -17220,7 +17219,7 @@
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>145</v>
       </c>
@@ -17242,7 +17241,7 @@
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>165</v>
       </c>
@@ -17264,7 +17263,7 @@
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>29</v>
       </c>
@@ -17285,7 +17284,7 @@
       </c>
       <c r="I183" s="4"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>166</v>
       </c>
@@ -17307,7 +17306,7 @@
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>160</v>
       </c>
@@ -17329,7 +17328,7 @@
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>167</v>
       </c>
@@ -17351,7 +17350,7 @@
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>168</v>
       </c>
@@ -17373,7 +17372,7 @@
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>100</v>
       </c>
@@ -17395,7 +17394,7 @@
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>104</v>
       </c>
@@ -17416,7 +17415,7 @@
       </c>
       <c r="I189" s="4"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>146</v>
       </c>
@@ -17438,7 +17437,7 @@
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>169</v>
       </c>
@@ -17460,7 +17459,7 @@
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>170</v>
       </c>
@@ -17482,7 +17481,7 @@
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>147</v>
       </c>
@@ -17504,7 +17503,7 @@
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>171</v>
       </c>
@@ -17526,7 +17525,7 @@
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>148</v>
       </c>
@@ -17548,7 +17547,7 @@
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>172</v>
       </c>
@@ -17570,7 +17569,7 @@
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>149</v>
       </c>
@@ -17592,7 +17591,7 @@
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>150</v>
       </c>
@@ -17614,7 +17613,7 @@
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>114</v>
       </c>
@@ -17636,7 +17635,7 @@
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>183</v>
       </c>
@@ -17655,7 +17654,7 @@
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>151</v>
       </c>
@@ -17674,7 +17673,7 @@
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>152</v>
       </c>
@@ -17693,7 +17692,7 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>36</v>
       </c>
@@ -17712,7 +17711,7 @@
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>36</v>
       </c>
@@ -17731,7 +17730,7 @@
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>116</v>
       </c>
@@ -17750,7 +17749,7 @@
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>116</v>
       </c>
@@ -17769,7 +17768,7 @@
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>184</v>
       </c>
@@ -17788,7 +17787,7 @@
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>32</v>
       </c>
@@ -17807,7 +17806,7 @@
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>32</v>
       </c>
@@ -17826,7 +17825,7 @@
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>185</v>
       </c>
@@ -17845,7 +17844,7 @@
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>47</v>
       </c>
@@ -17864,7 +17863,7 @@
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>47</v>
       </c>
@@ -17883,7 +17882,7 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>118</v>
       </c>
@@ -17902,7 +17901,7 @@
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>118</v>
       </c>
@@ -17921,7 +17920,7 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>153</v>
       </c>
@@ -17940,7 +17939,7 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>120</v>
       </c>
@@ -17959,7 +17958,7 @@
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>120</v>
       </c>
@@ -17978,7 +17977,7 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>121</v>
       </c>
@@ -17997,7 +17996,7 @@
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>44</v>
       </c>
@@ -18016,7 +18015,7 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>44</v>
       </c>
@@ -18035,7 +18034,7 @@
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>39</v>
       </c>
@@ -18054,7 +18053,7 @@
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>39</v>
       </c>
@@ -18073,7 +18072,7 @@
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>40</v>
       </c>
@@ -18092,7 +18091,7 @@
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>40</v>
       </c>
@@ -18111,7 +18110,7 @@
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>26</v>
       </c>
@@ -18130,7 +18129,7 @@
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>26</v>
       </c>
@@ -18149,7 +18148,7 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>125</v>
       </c>
@@ -18168,7 +18167,7 @@
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>125</v>
       </c>
@@ -18187,7 +18186,7 @@
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>38</v>
       </c>
@@ -18206,7 +18205,7 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>38</v>
       </c>
@@ -18225,7 +18224,7 @@
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>27</v>
       </c>
@@ -18244,7 +18243,7 @@
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>27</v>
       </c>
@@ -18263,7 +18262,7 @@
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>43</v>
       </c>
@@ -18282,7 +18281,7 @@
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>43</v>
       </c>
@@ -18301,7 +18300,7 @@
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>154</v>
       </c>
@@ -18320,7 +18319,7 @@
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>154</v>
       </c>
@@ -18339,7 +18338,7 @@
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>128</v>
       </c>
@@ -18358,7 +18357,7 @@
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>128</v>
       </c>
@@ -18377,7 +18376,7 @@
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -18396,7 +18395,7 @@
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>21</v>
       </c>
@@ -18415,7 +18414,7 @@
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -18434,7 +18433,7 @@
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>155</v>
       </c>
@@ -18453,7 +18452,7 @@
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>84</v>
       </c>
@@ -18472,7 +18471,7 @@
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>35</v>
       </c>
@@ -18491,7 +18490,7 @@
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>35</v>
       </c>
@@ -18510,7 +18509,7 @@
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>0</v>
       </c>
@@ -18518,7 +18517,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -18526,7 +18525,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>213</v>
       </c>
@@ -18534,7 +18533,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>2</v>
       </c>
@@ -18542,7 +18541,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -18550,7 +18549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -18558,7 +18557,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -18566,12 +18565,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>9</v>
       </c>
@@ -18597,7 +18596,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>220</v>
       </c>
@@ -18617,7 +18616,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>219</v>
       </c>
@@ -18638,7 +18637,7 @@
       </c>
       <c r="H257" s="4"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>188</v>
       </c>
@@ -18658,7 +18657,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>173</v>
       </c>
@@ -18678,7 +18677,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>190</v>
       </c>
@@ -18698,7 +18697,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>192</v>
       </c>
@@ -18718,7 +18717,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>194</v>
       </c>
@@ -18738,7 +18737,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>29</v>
       </c>
@@ -18758,7 +18757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>104</v>
       </c>
@@ -18778,7 +18777,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>199</v>
       </c>
@@ -18798,7 +18797,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>200</v>
       </c>
@@ -18818,7 +18817,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>203</v>
       </c>
@@ -18838,7 +18837,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>169</v>
       </c>
@@ -18858,7 +18857,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>114</v>
       </c>
@@ -18878,7 +18877,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>201</v>
       </c>
@@ -18895,7 +18894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>128</v>
       </c>
@@ -18913,7 +18912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -18930,7 +18929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>21</v>
       </c>
@@ -18962,20 +18961,20 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>204</v>
       </c>
@@ -18992,7 +18991,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>209</v>
       </c>
@@ -19016,7 +19015,7 @@
         <v>0.76740406381698656</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>211</v>
       </c>
@@ -19037,7 +19036,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>210</v>
       </c>
@@ -19061,7 +19060,7 @@
         <v>0.2325959361830135</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6">
         <f>SUM(B3:B5)</f>
         <v>1.3836599999999999</v>

--- a/premise/data/additional_inventories/lci-batteries-vanadium.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-vanadium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECBB505-E480-4688-959B-AE5CD4BE989E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD137CD9-0D3C-304E-BA58-03622FE8CDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="467">
   <si>
     <t>Activity</t>
   </si>
@@ -1549,6 +1549,9 @@
   </si>
   <si>
     <t>market for inert waste</t>
+  </si>
+  <si>
+    <t>inert waste</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1620,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1625,7 +1628,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1911,19 +1913,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36E651A-1BBF-4B98-A20A-7DDAE3546228}">
   <dimension ref="A1:S517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="1" max="1" width="54.5" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>452</v>
       </c>
@@ -1931,7 +1933,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>453</v>
       </c>
@@ -1939,7 +1941,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +1949,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1955,7 +1957,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1963,7 +1965,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1971,7 +1973,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1979,7 +1981,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1987,7 +1989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>213</v>
       </c>
@@ -1995,12 +1997,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2023,390 +2025,376 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>0.16</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>0.23</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>465</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>-0.47</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>8.4499999999999994E-5</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>220</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>-6.5000000000000002E-2</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>188</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>0.31</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <f>0.2/3.6</f>
         <v>5.5555555555555559E-2</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>192</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>0.37</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>0.5</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <v>0.46</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>232</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>231</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
+      <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>194</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26">
         <v>3.16</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" t="s">
         <v>233</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5" t="s">
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>234</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>0.93</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
+      <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>200</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28">
         <v>0.46</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
+      <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>199</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
+      <c r="F29" t="s">
         <v>13</v>
       </c>
       <c r="G29" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>235</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30">
         <v>-6.3200000000000006E-2</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5" t="s">
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>219</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31">
         <v>1.35</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2414,7 +2402,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2422,7 +2410,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2430,7 +2418,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -2438,7 +2426,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2446,7 +2434,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -2454,7 +2442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>213</v>
       </c>
@@ -2462,12 +2450,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -2511,7 +2499,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2544,7 +2532,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -2577,7 +2565,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>249</v>
       </c>
@@ -2610,7 +2598,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>251</v>
       </c>
@@ -2643,7 +2631,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -2676,7 +2664,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -2706,7 +2694,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>256</v>
       </c>
@@ -2739,7 +2727,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>257</v>
       </c>
@@ -2772,7 +2760,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>259</v>
       </c>
@@ -2805,7 +2793,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -2838,7 +2826,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -2868,7 +2856,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>262</v>
       </c>
@@ -2898,7 +2886,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -2931,7 +2919,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>155</v>
       </c>
@@ -2964,7 +2952,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>236</v>
       </c>
@@ -2993,7 +2981,7 @@
         <v>1137179252766.3799</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>458</v>
       </c>
@@ -3013,7 +3001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>188</v>
       </c>
@@ -3033,7 +3021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>266</v>
       </c>
@@ -3069,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>266</v>
       </c>
@@ -3105,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>270</v>
       </c>
@@ -3141,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>273</v>
       </c>
@@ -3177,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>274</v>
       </c>
@@ -3213,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>276</v>
       </c>
@@ -3246,7 +3234,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>278</v>
       </c>
@@ -3279,7 +3267,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>167</v>
       </c>
@@ -3312,7 +3300,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -3348,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>281</v>
       </c>
@@ -3384,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>148</v>
       </c>
@@ -3417,7 +3405,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -3450,7 +3438,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>192</v>
       </c>
@@ -3470,7 +3458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>190</v>
       </c>
@@ -3490,7 +3478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>173</v>
       </c>
@@ -3510,7 +3498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>284</v>
       </c>
@@ -3546,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>286</v>
       </c>
@@ -3566,7 +3554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>215</v>
       </c>
@@ -3586,7 +3574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -3594,7 +3582,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -3602,7 +3590,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -3610,7 +3598,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -3618,7 +3606,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -3626,7 +3614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>213</v>
       </c>
@@ -3634,12 +3622,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
@@ -3683,7 +3671,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>151</v>
       </c>
@@ -3712,7 +3700,7 @@
         <v>0.42567593307585527</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>152</v>
       </c>
@@ -3741,7 +3729,7 @@
         <v>0.42567593307585527</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>290</v>
       </c>
@@ -3770,7 +3758,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>116</v>
       </c>
@@ -3799,7 +3787,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -3828,7 +3816,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>251</v>
       </c>
@@ -3857,7 +3845,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -3886,7 +3874,7 @@
         <v>0.60099916805266884</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -3912,7 +3900,7 @@
         <v>0.31811947441173732</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>292</v>
       </c>
@@ -3941,7 +3929,7 @@
         <v>0.31811947441173732</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -3970,7 +3958,7 @@
         <v>0.31811947441173732</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>257</v>
       </c>
@@ -3999,7 +3987,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>295</v>
       </c>
@@ -4028,7 +4016,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>297</v>
       </c>
@@ -4057,7 +4045,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -4086,7 +4074,7 @@
         <v>0.31811947441173732</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>125</v>
       </c>
@@ -4112,7 +4100,7 @@
         <v>0.60099916805266884</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>262</v>
       </c>
@@ -4138,7 +4126,7 @@
         <v>0.60099916805266884</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>299</v>
       </c>
@@ -4164,7 +4152,7 @@
         <v>0.31811947441173732</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>300</v>
       </c>
@@ -4190,7 +4178,7 @@
         <v>0.42567593307585527</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>154</v>
       </c>
@@ -4216,7 +4204,7 @@
         <v>0.60099916805266884</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>128</v>
       </c>
@@ -4245,7 +4233,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -4277,7 +4265,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -4309,7 +4297,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>155</v>
       </c>
@@ -4341,7 +4329,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>304</v>
       </c>
@@ -4370,7 +4358,7 @@
         <v>0.84332674569232069</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>132</v>
       </c>
@@ -4399,7 +4387,7 @@
         <v>66239548000</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>142</v>
       </c>
@@ -4428,7 +4416,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>143</v>
       </c>
@@ -4457,7 +4445,7 @@
         <v>0.70710678118654757</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>144</v>
       </c>
@@ -4489,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>145</v>
       </c>
@@ -4521,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>29</v>
       </c>
@@ -4541,7 +4529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>100</v>
       </c>
@@ -4570,7 +4558,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>146</v>
       </c>
@@ -4602,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>308</v>
       </c>
@@ -4631,7 +4619,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>147</v>
       </c>
@@ -4660,7 +4648,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>148</v>
       </c>
@@ -4689,7 +4677,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>149</v>
       </c>
@@ -4718,7 +4706,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>150</v>
       </c>
@@ -4747,7 +4735,7 @@
         <v>0.2473863375370596</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>216</v>
       </c>
@@ -4767,7 +4755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
@@ -4775,7 +4763,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -4783,7 +4771,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -4791,7 +4779,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -4799,7 +4787,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -4807,7 +4795,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -4815,7 +4803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>213</v>
       </c>
@@ -4823,12 +4811,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -4848,7 +4836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>220</v>
       </c>
@@ -4869,7 +4857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>236</v>
       </c>
@@ -4890,7 +4878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
@@ -4898,7 +4886,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -4906,7 +4894,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="139" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -4931,7 +4919,7 @@
       <c r="R139"/>
       <c r="S139"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -4939,7 +4927,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4947,7 +4935,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -4955,7 +4943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>213</v>
       </c>
@@ -4963,12 +4951,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -4988,7 +4976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>311</v>
       </c>
@@ -5008,7 +4996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>220</v>
       </c>
@@ -5028,7 +5016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>220</v>
       </c>
@@ -5048,7 +5036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
@@ -5056,7 +5044,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -5064,7 +5052,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -5072,7 +5060,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -5080,7 +5068,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -5088,7 +5076,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -5096,7 +5084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>213</v>
       </c>
@@ -5104,7 +5092,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
@@ -5127,7 +5115,7 @@
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -5150,7 +5138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>316</v>
       </c>
@@ -5167,7 +5155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>116</v>
       </c>
@@ -5184,7 +5172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>254</v>
       </c>
@@ -5201,7 +5189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>21</v>
       </c>
@@ -5218,7 +5206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -5235,7 +5223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>313</v>
       </c>
@@ -5255,7 +5243,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>311</v>
       </c>
@@ -5275,7 +5263,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>460</v>
       </c>
@@ -5295,7 +5283,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>318</v>
       </c>
@@ -5315,7 +5303,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>320</v>
       </c>
@@ -5335,7 +5323,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>322</v>
       </c>
@@ -5355,7 +5343,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>232</v>
       </c>
@@ -5375,7 +5363,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>286</v>
       </c>
@@ -5395,7 +5383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>234</v>
       </c>
@@ -5415,7 +5403,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>324</v>
       </c>
@@ -5435,7 +5423,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>200</v>
       </c>
@@ -5455,7 +5443,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>0</v>
       </c>
@@ -5463,7 +5451,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1</v>
       </c>
@@ -5471,7 +5459,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -5479,7 +5467,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -5487,7 +5475,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -5495,7 +5483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>213</v>
       </c>
@@ -5503,12 +5491,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>9</v>
       </c>
@@ -5552,7 +5540,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>329</v>
       </c>
@@ -5584,7 +5572,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>290</v>
       </c>
@@ -5616,7 +5604,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>19</v>
       </c>
@@ -5648,7 +5636,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>116</v>
       </c>
@@ -5680,7 +5668,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>249</v>
       </c>
@@ -5712,7 +5700,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>336</v>
       </c>
@@ -5744,7 +5732,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>251</v>
       </c>
@@ -5776,7 +5764,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>117</v>
       </c>
@@ -5808,7 +5796,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>292</v>
       </c>
@@ -5840,7 +5828,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>121</v>
       </c>
@@ -5872,7 +5860,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>256</v>
       </c>
@@ -5904,7 +5892,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>257</v>
       </c>
@@ -5936,7 +5924,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>259</v>
       </c>
@@ -5968,7 +5956,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>295</v>
       </c>
@@ -6000,7 +5988,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>295</v>
       </c>
@@ -6032,7 +6020,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>122</v>
       </c>
@@ -6064,7 +6052,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>344</v>
       </c>
@@ -6093,7 +6081,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>297</v>
       </c>
@@ -6125,7 +6113,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>123</v>
       </c>
@@ -6157,7 +6145,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>26</v>
       </c>
@@ -6189,7 +6177,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>262</v>
       </c>
@@ -6218,7 +6206,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>299</v>
       </c>
@@ -6247,7 +6235,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>300</v>
       </c>
@@ -6276,7 +6264,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>126</v>
       </c>
@@ -6308,7 +6296,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>350</v>
       </c>
@@ -6340,7 +6328,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>128</v>
       </c>
@@ -6372,7 +6360,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>129</v>
       </c>
@@ -6401,7 +6389,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -6433,7 +6421,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -6465,7 +6453,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>304</v>
       </c>
@@ -6497,7 +6485,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>326</v>
       </c>
@@ -6529,7 +6517,7 @@
         <v>10100000000</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>102</v>
       </c>
@@ -6561,7 +6549,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>354</v>
       </c>
@@ -6593,7 +6581,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>357</v>
       </c>
@@ -6613,7 +6601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>94</v>
       </c>
@@ -6645,7 +6633,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>112</v>
       </c>
@@ -6680,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>96</v>
       </c>
@@ -6712,7 +6700,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>98</v>
       </c>
@@ -6744,7 +6732,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>114</v>
       </c>
@@ -6779,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>364</v>
       </c>
@@ -6799,7 +6787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>365</v>
       </c>
@@ -6831,7 +6819,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>110</v>
       </c>
@@ -6866,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>368</v>
       </c>
@@ -6886,7 +6874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>0</v>
       </c>
@@ -6894,7 +6882,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1</v>
       </c>
@@ -6902,7 +6890,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -6910,7 +6898,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -6918,7 +6906,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -6926,7 +6914,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -6934,7 +6922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>213</v>
       </c>
@@ -6942,12 +6930,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>9</v>
       </c>
@@ -6991,7 +6979,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>329</v>
       </c>
@@ -7023,7 +7011,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>374</v>
       </c>
@@ -7055,7 +7043,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>290</v>
       </c>
@@ -7087,7 +7075,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>19</v>
       </c>
@@ -7119,7 +7107,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>116</v>
       </c>
@@ -7151,7 +7139,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>249</v>
       </c>
@@ -7183,7 +7171,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>251</v>
       </c>
@@ -7215,7 +7203,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>118</v>
       </c>
@@ -7247,7 +7235,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>292</v>
       </c>
@@ -7279,7 +7267,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>121</v>
       </c>
@@ -7311,7 +7299,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>257</v>
       </c>
@@ -7343,7 +7331,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>259</v>
       </c>
@@ -7375,7 +7363,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>295</v>
       </c>
@@ -7407,7 +7395,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>122</v>
       </c>
@@ -7439,7 +7427,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>344</v>
       </c>
@@ -7468,7 +7456,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>297</v>
       </c>
@@ -7500,7 +7488,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>26</v>
       </c>
@@ -7532,7 +7520,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>201</v>
       </c>
@@ -7564,7 +7552,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>125</v>
       </c>
@@ -7593,7 +7581,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>262</v>
       </c>
@@ -7619,7 +7607,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>299</v>
       </c>
@@ -7648,7 +7636,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>300</v>
       </c>
@@ -7677,7 +7665,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>154</v>
       </c>
@@ -7706,7 +7694,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>381</v>
       </c>
@@ -7738,7 +7726,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>128</v>
       </c>
@@ -7770,7 +7758,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>383</v>
       </c>
@@ -7802,7 +7790,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>385</v>
       </c>
@@ -7834,7 +7822,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>84</v>
       </c>
@@ -7866,7 +7854,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>370</v>
       </c>
@@ -7895,7 +7883,7 @@
         <v>113558550000</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>387</v>
       </c>
@@ -7915,7 +7903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>389</v>
       </c>
@@ -7935,7 +7923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>102</v>
       </c>
@@ -7967,7 +7955,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>100</v>
       </c>
@@ -7987,7 +7975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>391</v>
       </c>
@@ -8007,7 +7995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>149</v>
       </c>
@@ -8027,7 +8015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>284</v>
       </c>
@@ -8062,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>284</v>
       </c>
@@ -8097,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>286</v>
       </c>
@@ -8117,7 +8105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>394</v>
       </c>
@@ -8137,7 +8125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>368</v>
       </c>
@@ -8157,7 +8145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>0</v>
       </c>
@@ -8165,7 +8153,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -8173,7 +8161,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>2</v>
       </c>
@@ -8181,7 +8169,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -8189,7 +8177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>5</v>
       </c>
@@ -8197,7 +8185,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -8205,7 +8193,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>6</v>
       </c>
@@ -8213,7 +8201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>213</v>
       </c>
@@ -8221,12 +8209,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -8249,7 +8237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>254</v>
       </c>
@@ -8266,7 +8254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>344</v>
       </c>
@@ -8283,7 +8271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>155</v>
       </c>
@@ -8300,7 +8288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>396</v>
       </c>
@@ -8320,7 +8308,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>398</v>
       </c>
@@ -8340,7 +8328,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>400</v>
       </c>
@@ -8360,7 +8348,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>402</v>
       </c>
@@ -8380,7 +8368,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>404</v>
       </c>
@@ -8400,7 +8388,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>406</v>
       </c>
@@ -8420,7 +8408,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>194</v>
       </c>
@@ -8440,7 +8428,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>286</v>
       </c>
@@ -8460,7 +8448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>408</v>
       </c>
@@ -8480,7 +8468,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>409</v>
       </c>
@@ -8500,7 +8488,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>0</v>
       </c>
@@ -8508,7 +8496,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1</v>
       </c>
@@ -8516,7 +8504,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>2</v>
       </c>
@@ -8524,7 +8512,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>5</v>
       </c>
@@ -8532,7 +8520,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -8540,7 +8528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>213</v>
       </c>
@@ -8548,12 +8536,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>9</v>
       </c>
@@ -8594,7 +8582,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>19</v>
       </c>
@@ -8626,7 +8614,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>116</v>
       </c>
@@ -8658,7 +8646,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>118</v>
       </c>
@@ -8690,7 +8678,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>412</v>
       </c>
@@ -8722,7 +8710,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>257</v>
       </c>
@@ -8754,7 +8742,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>259</v>
       </c>
@@ -8786,7 +8774,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>297</v>
       </c>
@@ -8818,7 +8806,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>26</v>
       </c>
@@ -8850,7 +8838,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>262</v>
       </c>
@@ -8879,7 +8867,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>299</v>
       </c>
@@ -8908,7 +8896,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>300</v>
       </c>
@@ -8937,7 +8925,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>128</v>
       </c>
@@ -8969,7 +8957,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>21</v>
       </c>
@@ -9001,7 +8989,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>21</v>
       </c>
@@ -9033,7 +9021,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>155</v>
       </c>
@@ -9065,7 +9053,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>84</v>
       </c>
@@ -9097,7 +9085,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>215</v>
       </c>
@@ -9123,7 +9111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>459</v>
       </c>
@@ -9158,7 +9146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>387</v>
       </c>
@@ -9178,7 +9166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>417</v>
       </c>
@@ -9198,7 +9186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>326</v>
       </c>
@@ -9218,7 +9206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>370</v>
       </c>
@@ -9238,7 +9226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>418</v>
       </c>
@@ -9270,7 +9258,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>100</v>
       </c>
@@ -9302,7 +9290,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>146</v>
       </c>
@@ -9337,7 +9325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>420</v>
       </c>
@@ -9357,7 +9345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>422</v>
       </c>
@@ -9377,7 +9365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>423</v>
       </c>
@@ -9409,7 +9397,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>284</v>
       </c>
@@ -9444,7 +9432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>0</v>
       </c>
@@ -9452,7 +9440,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1</v>
       </c>
@@ -9460,7 +9448,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>2</v>
       </c>
@@ -9468,7 +9456,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>5</v>
       </c>
@@ -9476,7 +9464,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>6</v>
       </c>
@@ -9484,7 +9472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>213</v>
       </c>
@@ -9492,12 +9480,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>9</v>
       </c>
@@ -9541,7 +9529,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>329</v>
       </c>
@@ -9573,7 +9561,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>290</v>
       </c>
@@ -9602,7 +9590,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>290</v>
       </c>
@@ -9634,7 +9622,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>19</v>
       </c>
@@ -9663,7 +9651,7 @@
         <v>0.2032240143290158</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>116</v>
       </c>
@@ -9692,7 +9680,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>249</v>
       </c>
@@ -9721,7 +9709,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>249</v>
       </c>
@@ -9753,7 +9741,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>336</v>
       </c>
@@ -9785,7 +9773,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>251</v>
       </c>
@@ -9814,7 +9802,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>251</v>
       </c>
@@ -9846,7 +9834,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>117</v>
       </c>
@@ -9878,7 +9866,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>118</v>
       </c>
@@ -9907,7 +9895,7 @@
         <v>0.58420886675914119</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>119</v>
       </c>
@@ -9933,7 +9921,7 @@
         <v>0.28513154858766498</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>292</v>
       </c>
@@ -9962,7 +9950,7 @@
         <v>0.28513154858766498</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>121</v>
       </c>
@@ -9991,7 +9979,7 @@
         <v>0.28513154858766498</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>121</v>
       </c>
@@ -10023,7 +10011,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>256</v>
       </c>
@@ -10055,7 +10043,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>257</v>
       </c>
@@ -10084,7 +10072,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>257</v>
       </c>
@@ -10116,7 +10104,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>259</v>
       </c>
@@ -10148,7 +10136,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>259</v>
       </c>
@@ -10177,7 +10165,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>295</v>
       </c>
@@ -10209,7 +10197,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>295</v>
       </c>
@@ -10238,7 +10226,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>295</v>
       </c>
@@ -10270,7 +10258,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>122</v>
       </c>
@@ -10302,7 +10290,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>344</v>
       </c>
@@ -10331,7 +10319,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>297</v>
       </c>
@@ -10360,7 +10348,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>297</v>
       </c>
@@ -10392,7 +10380,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>123</v>
       </c>
@@ -10424,7 +10412,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>26</v>
       </c>
@@ -10453,7 +10441,7 @@
         <v>0.28513154858766498</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>26</v>
       </c>
@@ -10485,7 +10473,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>125</v>
       </c>
@@ -10511,7 +10499,7 @@
         <v>0.58420886675914119</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>262</v>
       </c>
@@ -10537,7 +10525,7 @@
         <v>0.58420886675914119</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>262</v>
       </c>
@@ -10566,7 +10554,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>299</v>
       </c>
@@ -10595,7 +10583,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>300</v>
       </c>
@@ -10624,7 +10612,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>126</v>
       </c>
@@ -10656,7 +10644,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>350</v>
       </c>
@@ -10688,7 +10676,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>128</v>
       </c>
@@ -10717,7 +10705,7 @@
         <v>0.2032240143290158</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>128</v>
       </c>
@@ -10749,7 +10737,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>129</v>
       </c>
@@ -10778,7 +10766,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>385</v>
       </c>
@@ -10807,7 +10795,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>21</v>
       </c>
@@ -10836,7 +10824,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>21</v>
       </c>
@@ -10868,7 +10856,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>84</v>
       </c>
@@ -10897,7 +10885,7 @@
         <v>0.20024984394500789</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>304</v>
       </c>
@@ -10926,7 +10914,7 @@
         <v>0.83144452611103292</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>304</v>
       </c>
@@ -10958,7 +10946,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>216</v>
       </c>
@@ -10990,7 +10978,7 @@
         <v>473333424000</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>427</v>
       </c>
@@ -11022,7 +11010,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>428</v>
       </c>
@@ -11054,7 +11042,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>102</v>
       </c>
@@ -11086,7 +11074,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>92</v>
       </c>
@@ -11118,7 +11106,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>87</v>
       </c>
@@ -11138,7 +11126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>62</v>
       </c>
@@ -11158,7 +11146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>29</v>
       </c>
@@ -11178,7 +11166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>100</v>
       </c>
@@ -11210,7 +11198,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>104</v>
       </c>
@@ -11242,7 +11230,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>90</v>
       </c>
@@ -11262,7 +11250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>94</v>
       </c>
@@ -11282,7 +11270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>112</v>
       </c>
@@ -11302,7 +11290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>96</v>
       </c>
@@ -11334,7 +11322,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>98</v>
       </c>
@@ -11366,7 +11354,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>114</v>
       </c>
@@ -11401,7 +11389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>114</v>
       </c>
@@ -11436,7 +11424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>88</v>
       </c>
@@ -11468,7 +11456,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>364</v>
       </c>
@@ -11500,7 +11488,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>110</v>
       </c>
@@ -11535,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>110</v>
       </c>
@@ -11570,7 +11558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>215</v>
       </c>
@@ -11590,7 +11578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>0</v>
       </c>
@@ -11598,7 +11586,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1</v>
       </c>
@@ -11606,7 +11594,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>2</v>
       </c>
@@ -11614,7 +11602,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>4</v>
       </c>
@@ -11622,7 +11610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>5</v>
       </c>
@@ -11630,7 +11618,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>6</v>
       </c>
@@ -11638,7 +11626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>213</v>
       </c>
@@ -11646,12 +11634,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>9</v>
       </c>
@@ -11689,7 +11677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>461</v>
       </c>
@@ -11707,7 +11695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>57</v>
       </c>
@@ -11737,7 +11725,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>262</v>
       </c>
@@ -11767,7 +11755,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>299</v>
       </c>
@@ -11797,7 +11785,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>300</v>
       </c>
@@ -11827,7 +11815,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>462</v>
       </c>
@@ -11845,7 +11833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>83</v>
       </c>
@@ -11878,7 +11866,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>58</v>
       </c>
@@ -11911,7 +11899,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>222</v>
       </c>
@@ -11929,7 +11917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>21</v>
       </c>
@@ -11962,7 +11950,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>21</v>
       </c>
@@ -11995,7 +11983,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>435</v>
       </c>
@@ -12028,7 +12016,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>215</v>
       </c>
@@ -12055,7 +12043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>437</v>
       </c>
@@ -12076,7 +12064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>53</v>
       </c>
@@ -12109,7 +12097,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>52</v>
       </c>
@@ -12142,7 +12130,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>75</v>
       </c>
@@ -12175,7 +12163,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>29</v>
       </c>
@@ -12196,7 +12184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>73</v>
       </c>
@@ -12229,7 +12217,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>71</v>
       </c>
@@ -12262,7 +12250,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>440</v>
       </c>
@@ -12295,7 +12283,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>81</v>
       </c>
@@ -12328,7 +12316,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>408</v>
       </c>
@@ -12361,7 +12349,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>0</v>
       </c>
@@ -12369,7 +12357,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1</v>
       </c>
@@ -12377,7 +12365,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>2</v>
       </c>
@@ -12385,7 +12373,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>5</v>
       </c>
@@ -12393,7 +12381,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>6</v>
       </c>
@@ -12401,7 +12389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>213</v>
       </c>
@@ -12409,12 +12397,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>9</v>
       </c>
@@ -12458,7 +12446,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>183</v>
       </c>
@@ -12493,7 +12481,7 @@
         <v>1.55606191968828E-5</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>151</v>
       </c>
@@ -12528,7 +12516,7 @@
         <v>8.4863684140488602E-7</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>152</v>
       </c>
@@ -12563,7 +12551,7 @@
         <v>6.4229257012328897E-9</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>290</v>
       </c>
@@ -12598,7 +12586,7 @@
         <v>1.91118207484922E-8</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>116</v>
       </c>
@@ -12633,7 +12621,7 @@
         <v>9.2654649732402505E-4</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>184</v>
       </c>
@@ -12668,7 +12656,7 @@
         <v>7.17664459147306E-5</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>249</v>
       </c>
@@ -12703,7 +12691,7 @@
         <v>4.7308045462582802E-7</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>185</v>
       </c>
@@ -12738,7 +12726,7 @@
         <v>7.55436126385394E-8</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>251</v>
       </c>
@@ -12773,7 +12761,7 @@
         <v>1.10953178654857E-7</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>118</v>
       </c>
@@ -12808,7 +12796,7 @@
         <v>1.5630125721248699E-12</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>153</v>
       </c>
@@ -12837,7 +12825,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>292</v>
       </c>
@@ -12872,7 +12860,7 @@
         <v>4.7174811009129099E-6</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>121</v>
       </c>
@@ -12907,7 +12895,7 @@
         <v>6.6876972018751299E-7</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>257</v>
       </c>
@@ -12942,7 +12930,7 @@
         <v>7.9732840401622596E-7</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>295</v>
       </c>
@@ -12977,7 +12965,7 @@
         <v>6.2426905715800202E-7</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>297</v>
       </c>
@@ -13012,7 +13000,7 @@
         <v>2.43482893582134E-7</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>26</v>
       </c>
@@ -13047,7 +13035,7 @@
         <v>1.01936932435993E-4</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>125</v>
       </c>
@@ -13076,7 +13064,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>262</v>
       </c>
@@ -13105,7 +13093,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>299</v>
       </c>
@@ -13134,7 +13122,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>300</v>
       </c>
@@ -13163,7 +13151,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>300</v>
       </c>
@@ -13180,7 +13168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>154</v>
       </c>
@@ -13209,7 +13197,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>128</v>
       </c>
@@ -13244,7 +13232,7 @@
         <v>5.2058060269292197E-5</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>21</v>
       </c>
@@ -13279,7 +13267,7 @@
         <v>1.47176176815489E-3</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>21</v>
       </c>
@@ -13314,7 +13302,7 @@
         <v>8.8716527537463005E-3</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>84</v>
       </c>
@@ -13343,7 +13331,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>84</v>
       </c>
@@ -13360,7 +13348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>304</v>
       </c>
@@ -13395,7 +13383,7 @@
         <v>7.8463778271888698E-6</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>219</v>
       </c>
@@ -13421,7 +13409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>132</v>
       </c>
@@ -13441,7 +13429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>161</v>
       </c>
@@ -13473,7 +13461,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>142</v>
       </c>
@@ -13505,7 +13493,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>159</v>
       </c>
@@ -13537,7 +13525,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>163</v>
       </c>
@@ -13569,7 +13557,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>24</v>
       </c>
@@ -13601,7 +13589,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>143</v>
       </c>
@@ -13633,7 +13621,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>449</v>
       </c>
@@ -13668,7 +13656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>145</v>
       </c>
@@ -13700,7 +13688,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>165</v>
       </c>
@@ -13720,7 +13708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>29</v>
       </c>
@@ -13740,7 +13728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>166</v>
       </c>
@@ -13772,7 +13760,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>160</v>
       </c>
@@ -13804,7 +13792,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>167</v>
       </c>
@@ -13836,7 +13824,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>168</v>
       </c>
@@ -13868,7 +13856,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>100</v>
       </c>
@@ -13888,7 +13876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>104</v>
       </c>
@@ -13908,7 +13896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>146</v>
       </c>
@@ -13943,7 +13931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>169</v>
       </c>
@@ -13978,7 +13966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>170</v>
       </c>
@@ -14010,7 +13998,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>147</v>
       </c>
@@ -14030,7 +14018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>171</v>
       </c>
@@ -14062,7 +14050,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>148</v>
       </c>
@@ -14094,7 +14082,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>172</v>
       </c>
@@ -14126,7 +14114,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>149</v>
       </c>
@@ -14158,7 +14146,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>150</v>
       </c>
@@ -14178,7 +14166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>114</v>
       </c>
@@ -14213,7 +14201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>451</v>
       </c>
@@ -14248,27 +14236,27 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -14276,10 +14264,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -14287,7 +14275,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -14295,7 +14283,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -14303,7 +14291,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -14311,7 +14299,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -14319,7 +14307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -14327,7 +14315,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -14335,12 +14323,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -14366,7 +14354,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>B6</f>
         <v>vanadium bearing magnetite production</v>
@@ -14388,7 +14376,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -14409,7 +14397,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -14430,7 +14418,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -14451,7 +14439,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -14472,7 +14460,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -14493,7 +14481,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -14514,7 +14502,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -14535,7 +14523,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -14556,7 +14544,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -14577,7 +14565,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -14598,7 +14586,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>222</v>
       </c>
@@ -14618,7 +14606,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -14636,7 +14624,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -14654,7 +14642,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -14672,7 +14660,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -14690,7 +14678,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>224</v>
       </c>
@@ -14708,7 +14696,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -14726,7 +14714,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -14744,7 +14732,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -14762,7 +14750,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -14780,7 +14768,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -14798,7 +14786,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -14806,7 +14794,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -14814,7 +14802,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -14822,7 +14810,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -14830,7 +14818,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -14838,7 +14826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -14846,7 +14834,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -14854,12 +14842,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -14885,7 +14873,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>216</v>
       </c>
@@ -14906,7 +14894,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>215</v>
       </c>
@@ -14927,7 +14915,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -14948,7 +14936,7 @@
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -14969,7 +14957,7 @@
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -14990,7 +14978,7 @@
       </c>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -15011,7 +14999,7 @@
       </c>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -15032,7 +15020,7 @@
       </c>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -15053,7 +15041,7 @@
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -15074,7 +15062,7 @@
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>100</v>
       </c>
@@ -15095,7 +15083,7 @@
       </c>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -15116,7 +15104,7 @@
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -15137,7 +15125,7 @@
       </c>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -15158,7 +15146,7 @@
       </c>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>104</v>
       </c>
@@ -15179,7 +15167,7 @@
       </c>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -15200,7 +15188,7 @@
       </c>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -15221,7 +15209,7 @@
       </c>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -15242,7 +15230,7 @@
       </c>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -15263,7 +15251,7 @@
       </c>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -15284,7 +15272,7 @@
       </c>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -15302,7 +15290,7 @@
       </c>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -15320,7 +15308,7 @@
       </c>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -15338,7 +15326,7 @@
       </c>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -15356,7 +15344,7 @@
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -15374,7 +15362,7 @@
       </c>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>116</v>
       </c>
@@ -15392,7 +15380,7 @@
       </c>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -15410,7 +15398,7 @@
       </c>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -15428,7 +15416,7 @@
       </c>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -15446,7 +15434,7 @@
       </c>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -15464,7 +15452,7 @@
       </c>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -15482,7 +15470,7 @@
       </c>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -15500,7 +15488,7 @@
       </c>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -15518,7 +15506,7 @@
       </c>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -15536,7 +15524,7 @@
       </c>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -15554,7 +15542,7 @@
       </c>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>120</v>
       </c>
@@ -15572,7 +15560,7 @@
       </c>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>120</v>
       </c>
@@ -15590,7 +15578,7 @@
       </c>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>121</v>
       </c>
@@ -15608,7 +15596,7 @@
       </c>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>121</v>
       </c>
@@ -15626,7 +15614,7 @@
       </c>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>46</v>
       </c>
@@ -15644,7 +15632,7 @@
       </c>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>44</v>
       </c>
@@ -15662,7 +15650,7 @@
       </c>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -15680,7 +15668,7 @@
       </c>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -15698,7 +15686,7 @@
       </c>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -15716,7 +15704,7 @@
       </c>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -15734,7 +15722,7 @@
       </c>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -15752,7 +15740,7 @@
       </c>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>39</v>
       </c>
@@ -15770,7 +15758,7 @@
       </c>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>122</v>
       </c>
@@ -15788,7 +15776,7 @@
       </c>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>40</v>
       </c>
@@ -15806,7 +15794,7 @@
       </c>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>42</v>
       </c>
@@ -15824,7 +15812,7 @@
       </c>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>123</v>
       </c>
@@ -15842,7 +15830,7 @@
       </c>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -15860,7 +15848,7 @@
       </c>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -15878,7 +15866,7 @@
       </c>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>124</v>
       </c>
@@ -15896,7 +15884,7 @@
       </c>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>125</v>
       </c>
@@ -15914,7 +15902,7 @@
       </c>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>38</v>
       </c>
@@ -15932,7 +15920,7 @@
       </c>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -15950,7 +15938,7 @@
       </c>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>27</v>
       </c>
@@ -15968,7 +15956,7 @@
       </c>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>43</v>
       </c>
@@ -15986,7 +15974,7 @@
       </c>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -16004,7 +15992,7 @@
       </c>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>127</v>
       </c>
@@ -16022,7 +16010,7 @@
       </c>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -16040,7 +16028,7 @@
       </c>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>128</v>
       </c>
@@ -16058,7 +16046,7 @@
       </c>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>129</v>
       </c>
@@ -16076,7 +16064,7 @@
       </c>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -16094,7 +16082,7 @@
       </c>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -16112,7 +16100,7 @@
       </c>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>84</v>
       </c>
@@ -16130,7 +16118,7 @@
       </c>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -16148,7 +16136,7 @@
       </c>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>41</v>
       </c>
@@ -16166,10 +16154,10 @@
       </c>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -16177,7 +16165,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -16185,7 +16173,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>213</v>
       </c>
@@ -16193,7 +16181,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -16201,7 +16189,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -16209,7 +16197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -16217,7 +16205,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -16225,12 +16213,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>9</v>
       </c>
@@ -16256,7 +16244,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>132</v>
       </c>
@@ -16277,7 +16265,7 @@
       </c>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>216</v>
       </c>
@@ -16297,7 +16285,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -16317,7 +16305,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>143</v>
       </c>
@@ -16337,7 +16325,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>144</v>
       </c>
@@ -16357,7 +16345,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>145</v>
       </c>
@@ -16377,7 +16365,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>29</v>
       </c>
@@ -16397,7 +16385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>100</v>
       </c>
@@ -16417,7 +16405,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -16437,7 +16425,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -16457,7 +16445,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -16477,7 +16465,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -16497,7 +16485,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -16517,7 +16505,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -16534,7 +16522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>36</v>
       </c>
@@ -16551,7 +16539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>116</v>
       </c>
@@ -16568,7 +16556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -16585,7 +16573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>47</v>
       </c>
@@ -16602,7 +16590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>118</v>
       </c>
@@ -16619,7 +16607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>153</v>
       </c>
@@ -16636,7 +16624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>120</v>
       </c>
@@ -16653,7 +16641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>121</v>
       </c>
@@ -16670,7 +16658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>44</v>
       </c>
@@ -16687,7 +16675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -16704,7 +16692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>40</v>
       </c>
@@ -16721,7 +16709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -16738,7 +16726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>125</v>
       </c>
@@ -16755,7 +16743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>38</v>
       </c>
@@ -16772,7 +16760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -16789,7 +16777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>43</v>
       </c>
@@ -16806,7 +16794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -16823,7 +16811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>128</v>
       </c>
@@ -16840,7 +16828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -16857,7 +16845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -16874,7 +16862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>155</v>
       </c>
@@ -16891,7 +16879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>35</v>
       </c>
@@ -16908,10 +16896,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
@@ -16919,7 +16907,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -16927,7 +16915,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>213</v>
       </c>
@@ -16935,7 +16923,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -16943,7 +16931,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -16951,7 +16939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -16959,7 +16947,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -16967,12 +16955,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>9</v>
       </c>
@@ -16998,7 +16986,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>219</v>
       </c>
@@ -17020,7 +17008,7 @@
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>132</v>
       </c>
@@ -17042,7 +17030,7 @@
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>161</v>
       </c>
@@ -17064,7 +17052,7 @@
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>142</v>
       </c>
@@ -17086,7 +17074,7 @@
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>159</v>
       </c>
@@ -17108,7 +17096,7 @@
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>163</v>
       </c>
@@ -17130,7 +17118,7 @@
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -17152,7 +17140,7 @@
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>143</v>
       </c>
@@ -17174,7 +17162,7 @@
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>144</v>
       </c>
@@ -17196,7 +17184,7 @@
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>145</v>
       </c>
@@ -17218,7 +17206,7 @@
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>145</v>
       </c>
@@ -17240,7 +17228,7 @@
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>165</v>
       </c>
@@ -17262,7 +17250,7 @@
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>29</v>
       </c>
@@ -17283,7 +17271,7 @@
       </c>
       <c r="I183" s="4"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>166</v>
       </c>
@@ -17305,7 +17293,7 @@
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>160</v>
       </c>
@@ -17327,7 +17315,7 @@
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>167</v>
       </c>
@@ -17349,7 +17337,7 @@
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>168</v>
       </c>
@@ -17371,7 +17359,7 @@
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>100</v>
       </c>
@@ -17393,7 +17381,7 @@
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>104</v>
       </c>
@@ -17414,7 +17402,7 @@
       </c>
       <c r="I189" s="4"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>146</v>
       </c>
@@ -17436,7 +17424,7 @@
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>169</v>
       </c>
@@ -17458,7 +17446,7 @@
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>170</v>
       </c>
@@ -17480,7 +17468,7 @@
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>147</v>
       </c>
@@ -17502,7 +17490,7 @@
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>171</v>
       </c>
@@ -17524,7 +17512,7 @@
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>148</v>
       </c>
@@ -17546,7 +17534,7 @@
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>172</v>
       </c>
@@ -17568,7 +17556,7 @@
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>149</v>
       </c>
@@ -17590,7 +17578,7 @@
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>150</v>
       </c>
@@ -17612,7 +17600,7 @@
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>114</v>
       </c>
@@ -17634,7 +17622,7 @@
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>183</v>
       </c>
@@ -17653,7 +17641,7 @@
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>151</v>
       </c>
@@ -17672,7 +17660,7 @@
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>152</v>
       </c>
@@ -17691,7 +17679,7 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>36</v>
       </c>
@@ -17710,7 +17698,7 @@
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>36</v>
       </c>
@@ -17729,7 +17717,7 @@
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>116</v>
       </c>
@@ -17748,7 +17736,7 @@
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>116</v>
       </c>
@@ -17767,7 +17755,7 @@
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>184</v>
       </c>
@@ -17786,7 +17774,7 @@
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>32</v>
       </c>
@@ -17805,7 +17793,7 @@
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>32</v>
       </c>
@@ -17824,7 +17812,7 @@
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>185</v>
       </c>
@@ -17843,7 +17831,7 @@
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>47</v>
       </c>
@@ -17862,7 +17850,7 @@
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>47</v>
       </c>
@@ -17881,7 +17869,7 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>118</v>
       </c>
@@ -17900,7 +17888,7 @@
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>118</v>
       </c>
@@ -17919,7 +17907,7 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>153</v>
       </c>
@@ -17938,7 +17926,7 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>120</v>
       </c>
@@ -17957,7 +17945,7 @@
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>120</v>
       </c>
@@ -17976,7 +17964,7 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>121</v>
       </c>
@@ -17995,7 +17983,7 @@
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>44</v>
       </c>
@@ -18014,7 +18002,7 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>44</v>
       </c>
@@ -18033,7 +18021,7 @@
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>39</v>
       </c>
@@ -18052,7 +18040,7 @@
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>39</v>
       </c>
@@ -18071,7 +18059,7 @@
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>40</v>
       </c>
@@ -18090,7 +18078,7 @@
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>40</v>
       </c>
@@ -18109,7 +18097,7 @@
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>26</v>
       </c>
@@ -18128,7 +18116,7 @@
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>26</v>
       </c>
@@ -18147,7 +18135,7 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>125</v>
       </c>
@@ -18166,7 +18154,7 @@
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>125</v>
       </c>
@@ -18185,7 +18173,7 @@
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>38</v>
       </c>
@@ -18204,7 +18192,7 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>38</v>
       </c>
@@ -18223,7 +18211,7 @@
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>27</v>
       </c>
@@ -18242,7 +18230,7 @@
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>27</v>
       </c>
@@ -18261,7 +18249,7 @@
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>43</v>
       </c>
@@ -18280,7 +18268,7 @@
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>43</v>
       </c>
@@ -18299,7 +18287,7 @@
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>154</v>
       </c>
@@ -18318,7 +18306,7 @@
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>154</v>
       </c>
@@ -18337,7 +18325,7 @@
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>128</v>
       </c>
@@ -18356,7 +18344,7 @@
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>128</v>
       </c>
@@ -18375,7 +18363,7 @@
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -18394,7 +18382,7 @@
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>21</v>
       </c>
@@ -18413,7 +18401,7 @@
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -18432,7 +18420,7 @@
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>155</v>
       </c>
@@ -18451,7 +18439,7 @@
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>84</v>
       </c>
@@ -18470,7 +18458,7 @@
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>35</v>
       </c>
@@ -18489,7 +18477,7 @@
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>35</v>
       </c>
@@ -18508,7 +18496,7 @@
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>0</v>
       </c>
@@ -18516,7 +18504,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -18524,7 +18512,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>213</v>
       </c>
@@ -18532,7 +18520,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>2</v>
       </c>
@@ -18540,7 +18528,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -18548,7 +18536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -18556,7 +18544,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -18564,12 +18552,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>9</v>
       </c>
@@ -18595,7 +18583,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>220</v>
       </c>
@@ -18615,7 +18603,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>219</v>
       </c>
@@ -18636,7 +18624,7 @@
       </c>
       <c r="H257" s="4"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>188</v>
       </c>
@@ -18656,7 +18644,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>173</v>
       </c>
@@ -18676,7 +18664,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>190</v>
       </c>
@@ -18696,7 +18684,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>192</v>
       </c>
@@ -18716,7 +18704,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>194</v>
       </c>
@@ -18736,7 +18724,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>29</v>
       </c>
@@ -18756,7 +18744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>104</v>
       </c>
@@ -18776,7 +18764,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>199</v>
       </c>
@@ -18796,7 +18784,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>200</v>
       </c>
@@ -18816,7 +18804,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>203</v>
       </c>
@@ -18836,7 +18824,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>169</v>
       </c>
@@ -18856,7 +18844,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>114</v>
       </c>
@@ -18876,7 +18864,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>201</v>
       </c>
@@ -18893,7 +18881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>128</v>
       </c>
@@ -18911,7 +18899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -18928,7 +18916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>21</v>
       </c>
@@ -18960,20 +18948,20 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>204</v>
       </c>
@@ -18990,7 +18978,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>209</v>
       </c>
@@ -19014,7 +19002,7 @@
         <v>0.76740406381698656</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>211</v>
       </c>
@@ -19035,7 +19023,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>210</v>
       </c>
@@ -19059,7 +19047,7 @@
         <v>0.2325959361830135</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6">
         <f>SUM(B3:B5)</f>
         <v>1.3836599999999999</v>

--- a/premise/data/additional_inventories/lci-batteries-vanadium.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-vanadium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB54B6AE-06EA-3F4A-ABB8-9DA1A1395614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1A1D9C-2FC8-B744-92AF-04869C5A94DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35680" yWindow="1140" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1629,8 +1629,8 @@
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
     <cellStyle name="Per cent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1910,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36E651A-1BBF-4B98-A20A-7DDAE3546228}">
   <dimension ref="A1:S518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C228" sqref="C228"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="B414" sqref="B414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11288,7 +11288,8 @@
         <v>112</v>
       </c>
       <c r="B409">
-        <v>3.2600000000000001E-6</v>
+        <f>0.00000326*-1</f>
+        <v>-3.2600000000000001E-6</v>
       </c>
       <c r="C409" t="s">
         <v>113</v>
